--- a/data/exampleStochastic/Power_Demand.xlsx
+++ b/data/exampleStochastic/Power_Demand.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\exampleStochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22647747-0392-4523-BC75-74BA0ECCFE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ED929C-16C1-464C-A201-50CBFBA34315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34230" yWindow="-21705" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
     <sheet name="ScenarioB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -7251,76 +7264,76 @@
         <v>54</v>
       </c>
       <c r="G8" s="14">
-        <v>574.27430000000004</v>
+        <v>628.42327876073603</v>
       </c>
       <c r="H8" s="14">
-        <v>528.10990000000004</v>
+        <v>526.0475871904855</v>
       </c>
       <c r="I8" s="14">
-        <v>494.47</v>
+        <v>495.57381189831113</v>
       </c>
       <c r="J8" s="14">
-        <v>474.04739999999998</v>
+        <v>463.19295598402613</v>
       </c>
       <c r="K8" s="14">
-        <v>461.03190000000001</v>
+        <v>501.85963825569195</v>
       </c>
       <c r="L8" s="14">
-        <v>457.03750000000002</v>
+        <v>497.56286503802579</v>
       </c>
       <c r="M8" s="14">
-        <v>478.04489999999998</v>
+        <v>458.55718013706024</v>
       </c>
       <c r="N8" s="14">
-        <v>518.34860000000003</v>
+        <v>529.49963807190295</v>
       </c>
       <c r="O8" s="14">
-        <v>567.35569999999996</v>
+        <v>516.1486422654242</v>
       </c>
       <c r="P8" s="14">
-        <v>593.11770000000001</v>
+        <v>535.52843079875117</v>
       </c>
       <c r="Q8" s="14">
-        <v>623.15359999999998</v>
+        <v>572.659294654988</v>
       </c>
       <c r="R8" s="14">
-        <v>628.95500000000004</v>
+        <v>609.38641580826413</v>
       </c>
       <c r="S8" s="14">
-        <v>626.21410000000003</v>
+        <v>648.41872357803425</v>
       </c>
       <c r="T8" s="14">
-        <v>620.56060000000002</v>
+        <v>575.13246746970276</v>
       </c>
       <c r="U8" s="14">
-        <v>598.04229999999995</v>
+        <v>581.60674223703029</v>
       </c>
       <c r="V8" s="14">
-        <v>588.49530000000004</v>
+        <v>539.53774676483249</v>
       </c>
       <c r="W8" s="14">
-        <v>588.61760000000004</v>
+        <v>568.97520571681935</v>
       </c>
       <c r="X8" s="14">
-        <v>608.88480000000004</v>
+        <v>612.23987497525366</v>
       </c>
       <c r="Y8" s="14">
-        <v>663.42909999999995</v>
+        <v>676.98104001387367</v>
       </c>
       <c r="Z8" s="14">
-        <v>672.60519999999997</v>
+        <v>689.71870541045541</v>
       </c>
       <c r="AA8" s="14">
-        <v>669.38459999999998</v>
+        <v>609.95539529376435</v>
       </c>
       <c r="AB8" s="14">
-        <v>661.28869999999995</v>
+        <v>619.14390429058619</v>
       </c>
       <c r="AC8" s="14">
-        <v>626.30340000000001</v>
+        <v>619.63018625584255</v>
       </c>
       <c r="AD8" s="14">
-        <v>616.81569999999999</v>
+        <v>630.62831330600329</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -7338,76 +7351,76 @@
         <v>54</v>
       </c>
       <c r="G9" s="14">
-        <v>267.99470000000002</v>
+        <v>269.8101052105431</v>
       </c>
       <c r="H9" s="14">
-        <v>246.4513</v>
+        <v>244.03174872447229</v>
       </c>
       <c r="I9" s="14">
-        <v>230.7527</v>
+        <v>227.88397628145222</v>
       </c>
       <c r="J9" s="14">
-        <v>221.22210000000001</v>
+        <v>231.08852643299235</v>
       </c>
       <c r="K9" s="14">
-        <v>215.1482</v>
+        <v>198.99385125361465</v>
       </c>
       <c r="L9" s="14">
-        <v>213.2842</v>
+        <v>214.83056921139945</v>
       </c>
       <c r="M9" s="14">
-        <v>223.08760000000001</v>
+        <v>231.22914624822138</v>
       </c>
       <c r="N9" s="14">
-        <v>241.89599999999999</v>
+        <v>237.64165754562683</v>
       </c>
       <c r="O9" s="14">
-        <v>264.76600000000002</v>
+        <v>250.09926553872896</v>
       </c>
       <c r="P9" s="14">
-        <v>276.78829999999999</v>
+        <v>266.19519161933562</v>
       </c>
       <c r="Q9" s="14">
-        <v>290.80500000000001</v>
+        <v>295.96721378872826</v>
       </c>
       <c r="R9" s="14">
-        <v>293.51240000000001</v>
+        <v>270.16318065705889</v>
       </c>
       <c r="S9" s="14">
-        <v>292.23320000000001</v>
+        <v>287.386000662122</v>
       </c>
       <c r="T9" s="14">
-        <v>289.5949</v>
+        <v>272.58152096717077</v>
       </c>
       <c r="U9" s="14">
-        <v>279.08640000000003</v>
+        <v>275.32977112750029</v>
       </c>
       <c r="V9" s="14">
-        <v>274.6311</v>
+        <v>299.23447137221859</v>
       </c>
       <c r="W9" s="14">
-        <v>274.68819999999999</v>
+        <v>298.67284156784933</v>
       </c>
       <c r="X9" s="14">
-        <v>284.1463</v>
+        <v>312.07954865768676</v>
       </c>
       <c r="Y9" s="14">
-        <v>309.60019999999997</v>
+        <v>292.87786605375004</v>
       </c>
       <c r="Z9" s="14">
-        <v>313.88240000000002</v>
+        <v>298.49069399480896</v>
       </c>
       <c r="AA9" s="14">
-        <v>312.37950000000001</v>
+        <v>325.1719126234288</v>
       </c>
       <c r="AB9" s="14">
-        <v>308.60140000000001</v>
+        <v>289.41718828238953</v>
       </c>
       <c r="AC9" s="14">
-        <v>292.2749</v>
+        <v>276.4629403220643</v>
       </c>
       <c r="AD9" s="14">
-        <v>287.84730000000002</v>
+        <v>265.73643760872898</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -7425,76 +7438,76 @@
         <v>54</v>
       </c>
       <c r="G10" s="14">
-        <v>382.84960000000001</v>
+        <v>412.91522699205103</v>
       </c>
       <c r="H10" s="14">
-        <v>352.07330000000002</v>
+        <v>340.97867333101937</v>
       </c>
       <c r="I10" s="14">
-        <v>329.64670000000001</v>
+        <v>301.63139549807596</v>
       </c>
       <c r="J10" s="14">
-        <v>316.03160000000003</v>
+        <v>335.14089737405612</v>
       </c>
       <c r="K10" s="14">
-        <v>307.3546</v>
+        <v>303.85902746013841</v>
       </c>
       <c r="L10" s="14">
-        <v>304.69170000000003</v>
+        <v>282.02101579346714</v>
       </c>
       <c r="M10" s="14">
-        <v>318.69659999999999</v>
+        <v>289.65665917876606</v>
       </c>
       <c r="N10" s="14">
-        <v>345.56569999999999</v>
+        <v>371.39363373327063</v>
       </c>
       <c r="O10" s="14">
-        <v>378.2371</v>
+        <v>411.09070572675893</v>
       </c>
       <c r="P10" s="14">
-        <v>395.41180000000003</v>
+        <v>399.63111256561717</v>
       </c>
       <c r="Q10" s="14">
-        <v>415.4357</v>
+        <v>456.4639720527</v>
       </c>
       <c r="R10" s="14">
-        <v>419.30340000000001</v>
+        <v>427.282117892315</v>
       </c>
       <c r="S10" s="14">
-        <v>417.47609999999997</v>
+        <v>426.66591602603302</v>
       </c>
       <c r="T10" s="14">
-        <v>413.70710000000003</v>
+        <v>447.44947468163571</v>
       </c>
       <c r="U10" s="14">
-        <v>398.69479999999999</v>
+        <v>401.50018903097333</v>
       </c>
       <c r="V10" s="14">
-        <v>392.33019999999999</v>
+        <v>417.37966016835486</v>
       </c>
       <c r="W10" s="14">
-        <v>392.4117</v>
+        <v>376.00938376035515</v>
       </c>
       <c r="X10" s="14">
-        <v>405.92320000000001</v>
+        <v>413.33897933878427</v>
       </c>
       <c r="Y10" s="14">
-        <v>442.28609999999998</v>
+        <v>416.21348666165102</v>
       </c>
       <c r="Z10" s="14">
-        <v>448.40350000000001</v>
+        <v>432.54836125545251</v>
       </c>
       <c r="AA10" s="14">
-        <v>446.25639999999999</v>
+        <v>432.89540781771416</v>
       </c>
       <c r="AB10" s="14">
-        <v>440.85910000000001</v>
+        <v>448.98574167595109</v>
       </c>
       <c r="AC10" s="14">
-        <v>417.53559999999999</v>
+        <v>396.62799550628165</v>
       </c>
       <c r="AD10" s="14">
-        <v>411.21050000000002</v>
+        <v>414.46219019549858</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -7512,76 +7525,76 @@
         <v>54</v>
       </c>
       <c r="G11" s="14">
-        <v>765.69910000000004</v>
+        <v>733.20351817598169</v>
       </c>
       <c r="H11" s="14">
-        <v>704.14660000000003</v>
+        <v>693.3063018523568</v>
       </c>
       <c r="I11" s="14">
-        <v>659.29330000000004</v>
+        <v>677.11373813738987</v>
       </c>
       <c r="J11" s="14">
-        <v>632.06320000000005</v>
+        <v>639.99684019772133</v>
       </c>
       <c r="K11" s="14">
-        <v>614.70910000000003</v>
+        <v>609.09841202627683</v>
       </c>
       <c r="L11" s="14">
-        <v>609.38329999999996</v>
+        <v>566.5630263216924</v>
       </c>
       <c r="M11" s="14">
-        <v>637.39319999999998</v>
+        <v>673.54533056644038</v>
       </c>
       <c r="N11" s="14">
-        <v>691.13139999999999</v>
+        <v>756.50929013327402</v>
       </c>
       <c r="O11" s="14">
-        <v>756.47429999999997</v>
+        <v>708.32229504324482</v>
       </c>
       <c r="P11" s="14">
-        <v>790.82360000000006</v>
+        <v>785.0177285227636</v>
       </c>
       <c r="Q11" s="14">
-        <v>830.87139999999999</v>
+        <v>750.95337957650543</v>
       </c>
       <c r="R11" s="14">
-        <v>838.60670000000005</v>
+        <v>885.3703809417533</v>
       </c>
       <c r="S11" s="14">
-        <v>834.95209999999997</v>
+        <v>772.98838581204041</v>
       </c>
       <c r="T11" s="14">
-        <v>827.41409999999996</v>
+        <v>872.19027810874366</v>
       </c>
       <c r="U11" s="14">
-        <v>797.38969999999995</v>
+        <v>833.24485088216534</v>
       </c>
       <c r="V11" s="14">
-        <v>784.66039999999998</v>
+        <v>848.36275372352623</v>
       </c>
       <c r="W11" s="14">
-        <v>784.82349999999997</v>
+        <v>835.26432234140839</v>
       </c>
       <c r="X11" s="14">
-        <v>811.84640000000002</v>
+        <v>736.36406889222462</v>
       </c>
       <c r="Y11" s="14">
-        <v>884.57209999999998</v>
+        <v>963.77999077287586</v>
       </c>
       <c r="Z11" s="14">
-        <v>896.80690000000004</v>
+        <v>982.37666180324402</v>
       </c>
       <c r="AA11" s="14">
-        <v>892.51279999999997</v>
+        <v>812.86131591374306</v>
       </c>
       <c r="AB11" s="14">
-        <v>881.7183</v>
+        <v>876.94089637450168</v>
       </c>
       <c r="AC11" s="14">
-        <v>835.07119999999998</v>
+        <v>863.26588699055515</v>
       </c>
       <c r="AD11" s="14">
-        <v>822.42100000000005</v>
+        <v>873.86595983685936</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -7599,76 +7612,76 @@
         <v>54</v>
       </c>
       <c r="G12" s="14">
-        <v>191.4248</v>
+        <v>192.10032404674399</v>
       </c>
       <c r="H12" s="14">
-        <v>176.03659999999999</v>
+        <v>187.50180124666957</v>
       </c>
       <c r="I12" s="14">
-        <v>164.82329999999999</v>
+        <v>150.71739658736684</v>
       </c>
       <c r="J12" s="14">
-        <v>158.01580000000001</v>
+        <v>142.42300100866083</v>
       </c>
       <c r="K12" s="14">
-        <v>153.6773</v>
+        <v>139.28135654078926</v>
       </c>
       <c r="L12" s="14">
-        <v>152.3458</v>
+        <v>160.89686955621195</v>
       </c>
       <c r="M12" s="14">
-        <v>159.34829999999999</v>
+        <v>158.56721044511593</v>
       </c>
       <c r="N12" s="14">
-        <v>172.78290000000001</v>
+        <v>162.36650371539594</v>
       </c>
       <c r="O12" s="14">
-        <v>189.11859999999999</v>
+        <v>181.79154888206034</v>
       </c>
       <c r="P12" s="14">
-        <v>197.70590000000001</v>
+        <v>181.99349855623373</v>
       </c>
       <c r="Q12" s="14">
-        <v>207.71789999999999</v>
+        <v>197.70742814237553</v>
       </c>
       <c r="R12" s="14">
-        <v>209.65170000000001</v>
+        <v>204.20473193955948</v>
       </c>
       <c r="S12" s="14">
-        <v>208.738</v>
+        <v>193.33847427635786</v>
       </c>
       <c r="T12" s="14">
-        <v>206.8535</v>
+        <v>210.93244069457776</v>
       </c>
       <c r="U12" s="14">
-        <v>199.34739999999999</v>
+        <v>205.13174922572884</v>
       </c>
       <c r="V12" s="14">
-        <v>196.1651</v>
+        <v>201.71200835513085</v>
       </c>
       <c r="W12" s="14">
-        <v>196.20590000000001</v>
+        <v>180.15379526319299</v>
       </c>
       <c r="X12" s="14">
-        <v>202.9616</v>
+        <v>219.04005258598704</v>
       </c>
       <c r="Y12" s="14">
-        <v>221.143</v>
+        <v>215.58549573841907</v>
       </c>
       <c r="Z12" s="14">
-        <v>224.20169999999999</v>
+        <v>224.37817991295577</v>
       </c>
       <c r="AA12" s="14">
-        <v>223.12819999999999</v>
+        <v>221.83637588463333</v>
       </c>
       <c r="AB12" s="14">
-        <v>220.42959999999999</v>
+        <v>215.03451617582738</v>
       </c>
       <c r="AC12" s="14">
-        <v>208.76779999999999</v>
+        <v>211.88375771829524</v>
       </c>
       <c r="AD12" s="14">
-        <v>205.6052</v>
+        <v>197.96020786266536</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -7686,76 +7699,76 @@
         <v>54</v>
       </c>
       <c r="G13" s="14">
-        <v>957.12390000000005</v>
+        <v>909.10943221341552</v>
       </c>
       <c r="H13" s="14">
-        <v>880.18320000000006</v>
+        <v>959.26977709037578</v>
       </c>
       <c r="I13" s="14">
-        <v>824.11659999999995</v>
+        <v>878.68810634904571</v>
       </c>
       <c r="J13" s="14">
-        <v>790.07899999999995</v>
+        <v>810.87032194326173</v>
       </c>
       <c r="K13" s="14">
-        <v>768.38639999999998</v>
+        <v>734.56791302486295</v>
       </c>
       <c r="L13" s="14">
-        <v>761.72910000000002</v>
+        <v>779.58802950636186</v>
       </c>
       <c r="M13" s="14">
-        <v>796.74149999999997</v>
+        <v>834.3609381614782</v>
       </c>
       <c r="N13" s="14">
-        <v>863.91430000000003</v>
+        <v>919.76266022753032</v>
       </c>
       <c r="O13" s="14">
-        <v>945.59289999999999</v>
+        <v>899.55042573121602</v>
       </c>
       <c r="P13" s="14">
-        <v>988.52949999999998</v>
+        <v>1008.2077440286297</v>
       </c>
       <c r="Q13" s="14">
-        <v>1038.5893000000001</v>
+        <v>984.56584405541412</v>
       </c>
       <c r="R13" s="14">
-        <v>1048.2583999999999</v>
+        <v>1070.8332923547746</v>
       </c>
       <c r="S13" s="14">
-        <v>1043.6902</v>
+        <v>970.97436759988682</v>
       </c>
       <c r="T13" s="14">
-        <v>1034.2675999999999</v>
+        <v>1063.7495486754285</v>
       </c>
       <c r="U13" s="14">
-        <v>996.73710000000005</v>
+        <v>1008.2746987484022</v>
       </c>
       <c r="V13" s="14">
-        <v>980.82550000000003</v>
+        <v>1036.4372412834716</v>
       </c>
       <c r="W13" s="14">
-        <v>981.02940000000001</v>
+        <v>1009.1934110527957</v>
       </c>
       <c r="X13" s="14">
-        <v>1014.8081</v>
+        <v>1023.1309462283482</v>
       </c>
       <c r="Y13" s="14">
-        <v>1105.7152000000001</v>
+        <v>1008.3418998555017</v>
       </c>
       <c r="Z13" s="14">
-        <v>1121.0085999999999</v>
+        <v>1173.5372578759473</v>
       </c>
       <c r="AA13" s="14">
-        <v>1115.6410000000001</v>
+        <v>1189.8748147186466</v>
       </c>
       <c r="AB13" s="14">
-        <v>1102.1478</v>
+        <v>1153.3021142389798</v>
       </c>
       <c r="AC13" s="14">
-        <v>1043.8389999999999</v>
+        <v>1085.4791959014419</v>
       </c>
       <c r="AD13" s="14">
-        <v>1028.0262</v>
+        <v>1034.2393345401324</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -7773,76 +7786,76 @@
         <v>54</v>
       </c>
       <c r="G14" s="14">
-        <v>306.27960000000002</v>
+        <v>325.06568507457769</v>
       </c>
       <c r="H14" s="14">
-        <v>281.65859999999998</v>
+        <v>288.71920658214935</v>
       </c>
       <c r="I14" s="14">
-        <v>263.71730000000002</v>
+        <v>268.9428895766668</v>
       </c>
       <c r="J14" s="14">
-        <v>252.8253</v>
+        <v>270.99442852613777</v>
       </c>
       <c r="K14" s="14">
-        <v>245.8837</v>
+        <v>233.74619074869321</v>
       </c>
       <c r="L14" s="14">
-        <v>243.7533</v>
+        <v>262.12036912275727</v>
       </c>
       <c r="M14" s="14">
-        <v>254.9573</v>
+        <v>254.43439398176019</v>
       </c>
       <c r="N14" s="14">
-        <v>276.45260000000002</v>
+        <v>277.68267611908379</v>
       </c>
       <c r="O14" s="14">
-        <v>302.58969999999999</v>
+        <v>316.00823464679587</v>
       </c>
       <c r="P14" s="14">
-        <v>316.32940000000002</v>
+        <v>327.49633096380836</v>
       </c>
       <c r="Q14" s="14">
-        <v>332.34859999999998</v>
+        <v>349.76411313177596</v>
       </c>
       <c r="R14" s="14">
-        <v>335.4427</v>
+        <v>333.29654468679405</v>
       </c>
       <c r="S14" s="14">
-        <v>333.98079999999999</v>
+        <v>355.91430064962537</v>
       </c>
       <c r="T14" s="14">
-        <v>330.96559999999999</v>
+        <v>302.34285568268757</v>
       </c>
       <c r="U14" s="14">
-        <v>318.95589999999999</v>
+        <v>332.06904265185057</v>
       </c>
       <c r="V14" s="14">
-        <v>313.86419999999998</v>
+        <v>294.44070825796018</v>
       </c>
       <c r="W14" s="14">
-        <v>313.92939999999999</v>
+        <v>335.94404775137434</v>
       </c>
       <c r="X14" s="14">
-        <v>324.73860000000002</v>
+        <v>333.59024791385616</v>
       </c>
       <c r="Y14" s="14">
-        <v>353.82889999999998</v>
+        <v>362.82279888380111</v>
       </c>
       <c r="Z14" s="14">
-        <v>358.72280000000001</v>
+        <v>329.40785007349149</v>
       </c>
       <c r="AA14" s="14">
-        <v>357.00510000000003</v>
+        <v>323.68707660170827</v>
       </c>
       <c r="AB14" s="14">
-        <v>352.68729999999999</v>
+        <v>320.74341002649572</v>
       </c>
       <c r="AC14" s="14">
-        <v>334.02850000000001</v>
+        <v>302.39861274616254</v>
       </c>
       <c r="AD14" s="14">
-        <v>328.96839999999997</v>
+        <v>360.3812755582652</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -7860,76 +7873,76 @@
         <v>62</v>
       </c>
       <c r="G15" s="14">
-        <v>191.4248</v>
+        <v>205.09595101060208</v>
       </c>
       <c r="H15" s="14">
-        <v>176.03659999999999</v>
+        <v>181.71575681861134</v>
       </c>
       <c r="I15" s="14">
-        <v>164.82329999999999</v>
+        <v>148.59092085201675</v>
       </c>
       <c r="J15" s="14">
-        <v>158.01580000000001</v>
+        <v>149.87527870880177</v>
       </c>
       <c r="K15" s="14">
-        <v>153.6773</v>
+        <v>149.68788210778723</v>
       </c>
       <c r="L15" s="14">
-        <v>152.3458</v>
+        <v>163.10931700207766</v>
       </c>
       <c r="M15" s="14">
-        <v>159.34829999999999</v>
+        <v>144.80481355676559</v>
       </c>
       <c r="N15" s="14">
-        <v>172.78290000000001</v>
+        <v>168.98787416707489</v>
       </c>
       <c r="O15" s="14">
-        <v>189.11859999999999</v>
+        <v>185.57924337864739</v>
       </c>
       <c r="P15" s="14">
-        <v>197.70590000000001</v>
+        <v>178.79481103142868</v>
       </c>
       <c r="Q15" s="14">
-        <v>207.71789999999999</v>
+        <v>187.28103998691736</v>
       </c>
       <c r="R15" s="14">
-        <v>209.65170000000001</v>
+        <v>214.29735584912319</v>
       </c>
       <c r="S15" s="14">
-        <v>208.738</v>
+        <v>225.87111686499807</v>
       </c>
       <c r="T15" s="14">
-        <v>206.8535</v>
+        <v>220.27564931487493</v>
       </c>
       <c r="U15" s="14">
-        <v>199.34739999999999</v>
+        <v>212.06732234491457</v>
       </c>
       <c r="V15" s="14">
-        <v>196.1651</v>
+        <v>211.02368739331553</v>
       </c>
       <c r="W15" s="14">
-        <v>196.20590000000001</v>
+        <v>214.11795209874253</v>
       </c>
       <c r="X15" s="14">
-        <v>202.9616</v>
+        <v>220.31837019498838</v>
       </c>
       <c r="Y15" s="14">
-        <v>221.143</v>
+        <v>208.90266575266722</v>
       </c>
       <c r="Z15" s="14">
-        <v>224.20169999999999</v>
+        <v>208.03806669528143</v>
       </c>
       <c r="AA15" s="14">
-        <v>223.12819999999999</v>
+        <v>220.66309489131814</v>
       </c>
       <c r="AB15" s="14">
-        <v>220.42959999999999</v>
+        <v>231.22855749548867</v>
       </c>
       <c r="AC15" s="14">
-        <v>208.76779999999999</v>
+        <v>202.53206671627325</v>
       </c>
       <c r="AD15" s="14">
-        <v>205.6052</v>
+        <v>198.13138115567588</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -7947,76 +7960,76 @@
         <v>62</v>
       </c>
       <c r="G16" s="14">
-        <v>191.4248</v>
+        <v>195.33396093789526</v>
       </c>
       <c r="H16" s="14">
-        <v>176.03659999999999</v>
+        <v>185.41601773872429</v>
       </c>
       <c r="I16" s="14">
-        <v>164.82329999999999</v>
+        <v>151.157355589763</v>
       </c>
       <c r="J16" s="14">
-        <v>158.01580000000001</v>
+        <v>146.93229461532337</v>
       </c>
       <c r="K16" s="14">
-        <v>153.6773</v>
+        <v>151.59890956534466</v>
       </c>
       <c r="L16" s="14">
-        <v>152.3458</v>
+        <v>145.11960411856845</v>
       </c>
       <c r="M16" s="14">
-        <v>159.34829999999999</v>
+        <v>164.48058332868743</v>
       </c>
       <c r="N16" s="14">
-        <v>172.78290000000001</v>
+        <v>158.1659055911104</v>
       </c>
       <c r="O16" s="14">
-        <v>189.11859999999999</v>
+        <v>178.79102538022096</v>
       </c>
       <c r="P16" s="14">
-        <v>197.70590000000001</v>
+        <v>181.72489822517917</v>
       </c>
       <c r="Q16" s="14">
-        <v>207.71789999999999</v>
+        <v>212.09841939185165</v>
       </c>
       <c r="R16" s="14">
-        <v>209.65170000000001</v>
+        <v>193.43355867089363</v>
       </c>
       <c r="S16" s="14">
-        <v>208.738</v>
+        <v>205.67914717562462</v>
       </c>
       <c r="T16" s="14">
-        <v>206.8535</v>
+        <v>198.9334298287489</v>
       </c>
       <c r="U16" s="14">
-        <v>199.34739999999999</v>
+        <v>189.51430087317434</v>
       </c>
       <c r="V16" s="14">
-        <v>196.1651</v>
+        <v>212.15778403175696</v>
       </c>
       <c r="W16" s="14">
-        <v>196.20590000000001</v>
+        <v>201.74004256946654</v>
       </c>
       <c r="X16" s="14">
-        <v>202.9616</v>
+        <v>217.05247516702107</v>
       </c>
       <c r="Y16" s="14">
-        <v>221.143</v>
+        <v>202.31895667146333</v>
       </c>
       <c r="Z16" s="14">
-        <v>224.20169999999999</v>
+        <v>225.14625799990191</v>
       </c>
       <c r="AA16" s="14">
-        <v>223.12819999999999</v>
+        <v>208.28985735417666</v>
       </c>
       <c r="AB16" s="14">
-        <v>220.42959999999999</v>
+        <v>217.27985100880781</v>
       </c>
       <c r="AC16" s="14">
-        <v>208.76779999999999</v>
+        <v>200.10421266916038</v>
       </c>
       <c r="AD16" s="14">
-        <v>205.6052</v>
+        <v>214.25106940000194</v>
       </c>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
@@ -8034,76 +8047,76 @@
         <v>54</v>
       </c>
       <c r="G17" s="14">
-        <v>489.00229999999999</v>
+        <v>446.83602370676351</v>
       </c>
       <c r="H17" s="14">
-        <v>455.98289999999997</v>
+        <v>466.36616114107795</v>
       </c>
       <c r="I17" s="14">
-        <v>433.34550000000002</v>
+        <v>414.62431914566093</v>
       </c>
       <c r="J17" s="14">
-        <v>422.28300000000002</v>
+        <v>429.04358562985641</v>
       </c>
       <c r="K17" s="14">
-        <v>417.36759999999998</v>
+        <v>453.8225379486579</v>
       </c>
       <c r="L17" s="14">
-        <v>418.43110000000001</v>
+        <v>401.16510713094107</v>
       </c>
       <c r="M17" s="14">
-        <v>439.7681</v>
+        <v>402.10112974960964</v>
       </c>
       <c r="N17" s="14">
-        <v>471.58030000000002</v>
+        <v>455.15623795359329</v>
       </c>
       <c r="O17" s="14">
-        <v>508.81139999999999</v>
+        <v>519.37610109347361</v>
       </c>
       <c r="P17" s="14">
-        <v>538.97040000000004</v>
+        <v>510.22702094405395</v>
       </c>
       <c r="Q17" s="14">
-        <v>567.20259999999996</v>
+        <v>605.3969141326362</v>
       </c>
       <c r="R17" s="14">
-        <v>582.01329999999996</v>
+        <v>534.9212542461629</v>
       </c>
       <c r="S17" s="14">
-        <v>591.29089999999997</v>
+        <v>575.05972949425723</v>
       </c>
       <c r="T17" s="14">
-        <v>592.40459999999996</v>
+        <v>619.81775319587098</v>
       </c>
       <c r="U17" s="14">
-        <v>573.87159999999994</v>
+        <v>516.98154984858741</v>
       </c>
       <c r="V17" s="14">
-        <v>565.06690000000003</v>
+        <v>582.65630751763194</v>
       </c>
       <c r="W17" s="14">
-        <v>564.26689999999996</v>
+        <v>613.04105114280242</v>
       </c>
       <c r="X17" s="14">
-        <v>568.07910000000004</v>
+        <v>605.83679385340906</v>
       </c>
       <c r="Y17" s="14">
-        <v>566.36339999999996</v>
+        <v>511.60547378088995</v>
       </c>
       <c r="Z17" s="14">
-        <v>562.4873</v>
+        <v>529.08149034732924</v>
       </c>
       <c r="AA17" s="14">
-        <v>568.28129999999999</v>
+        <v>610.75306461804416</v>
       </c>
       <c r="AB17" s="14">
-        <v>581.44510000000002</v>
+        <v>619.02533460863378</v>
       </c>
       <c r="AC17" s="14">
-        <v>564.88940000000002</v>
+        <v>523.43091471223863</v>
       </c>
       <c r="AD17" s="14">
-        <v>524.75429999999994</v>
+        <v>516.89921764282781</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
@@ -8121,76 +8134,76 @@
         <v>54</v>
       </c>
       <c r="G18" s="14">
-        <v>228.2011</v>
+        <v>208.02144113344849</v>
       </c>
       <c r="H18" s="14">
-        <v>212.792</v>
+        <v>227.26821628968079</v>
       </c>
       <c r="I18" s="14">
-        <v>202.22790000000001</v>
+        <v>194.9537911947323</v>
       </c>
       <c r="J18" s="14">
-        <v>197.06540000000001</v>
+        <v>199.94375572068051</v>
       </c>
       <c r="K18" s="14">
-        <v>194.7715</v>
+        <v>187.92754390605816</v>
       </c>
       <c r="L18" s="14">
-        <v>195.26779999999999</v>
+        <v>214.01801316670915</v>
       </c>
       <c r="M18" s="14">
-        <v>205.2251</v>
+        <v>217.22277729073221</v>
       </c>
       <c r="N18" s="14">
-        <v>220.07079999999999</v>
+        <v>199.24505709434888</v>
       </c>
       <c r="O18" s="14">
-        <v>237.4453</v>
+        <v>220.93972794775789</v>
       </c>
       <c r="P18" s="14">
-        <v>251.51949999999999</v>
+        <v>264.3739719808197</v>
       </c>
       <c r="Q18" s="14">
-        <v>264.69450000000001</v>
+        <v>242.97526137372174</v>
       </c>
       <c r="R18" s="14">
-        <v>271.6062</v>
+        <v>247.6978957148369</v>
       </c>
       <c r="S18" s="14">
-        <v>275.93579999999997</v>
+        <v>262.77344019203792</v>
       </c>
       <c r="T18" s="14">
-        <v>276.45549999999997</v>
+        <v>250.05492257478571</v>
       </c>
       <c r="U18" s="14">
-        <v>267.80680000000001</v>
+        <v>248.95983301212345</v>
       </c>
       <c r="V18" s="14">
-        <v>263.6979</v>
+        <v>274.63062352506057</v>
       </c>
       <c r="W18" s="14">
-        <v>263.32459999999998</v>
+        <v>276.30939730258996</v>
       </c>
       <c r="X18" s="14">
-        <v>265.10359999999997</v>
+        <v>254.85029196506022</v>
       </c>
       <c r="Y18" s="14">
-        <v>264.30290000000002</v>
+        <v>253.35518388968387</v>
       </c>
       <c r="Z18" s="14">
-        <v>262.4941</v>
+        <v>266.06360887857295</v>
       </c>
       <c r="AA18" s="14">
-        <v>265.1979</v>
+        <v>244.35175060072424</v>
       </c>
       <c r="AB18" s="14">
-        <v>271.34100000000001</v>
+        <v>264.87710962610066</v>
       </c>
       <c r="AC18" s="14">
-        <v>263.61509999999998</v>
+        <v>261.83809460625361</v>
       </c>
       <c r="AD18" s="14">
-        <v>244.8853</v>
+        <v>236.74620073542138</v>
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
@@ -8208,76 +8221,76 @@
         <v>54</v>
       </c>
       <c r="G19" s="14">
-        <v>326.00150000000002</v>
+        <v>344.07037289962983</v>
       </c>
       <c r="H19" s="14">
-        <v>303.98860000000002</v>
+        <v>292.54280857459838</v>
       </c>
       <c r="I19" s="14">
-        <v>288.89699999999999</v>
+        <v>284.35938152337968</v>
       </c>
       <c r="J19" s="14">
-        <v>281.52199999999999</v>
+        <v>283.41149330021511</v>
       </c>
       <c r="K19" s="14">
-        <v>278.245</v>
+        <v>255.51166517451097</v>
       </c>
       <c r="L19" s="14">
-        <v>278.95409999999998</v>
+        <v>293.91821859950602</v>
       </c>
       <c r="M19" s="14">
-        <v>293.17869999999999</v>
+        <v>268.84133695175871</v>
       </c>
       <c r="N19" s="14">
-        <v>314.38690000000003</v>
+        <v>307.65196463620345</v>
       </c>
       <c r="O19" s="14">
-        <v>339.20760000000001</v>
+        <v>343.64514299106975</v>
       </c>
       <c r="P19" s="14">
-        <v>359.31360000000001</v>
+        <v>372.54838637164363</v>
       </c>
       <c r="Q19" s="14">
-        <v>378.13510000000002</v>
+        <v>362.85703608902293</v>
       </c>
       <c r="R19" s="14">
-        <v>388.00880000000001</v>
+        <v>413.52639051562898</v>
       </c>
       <c r="S19" s="14">
-        <v>394.19400000000002</v>
+        <v>430.33959816739372</v>
       </c>
       <c r="T19" s="14">
-        <v>394.93639999999999</v>
+        <v>368.86690177376363</v>
       </c>
       <c r="U19" s="14">
-        <v>382.58109999999999</v>
+        <v>366.29713566921083</v>
       </c>
       <c r="V19" s="14">
-        <v>376.71129999999999</v>
+        <v>386.43930055934442</v>
       </c>
       <c r="W19" s="14">
-        <v>376.178</v>
+        <v>397.55589772781957</v>
       </c>
       <c r="X19" s="14">
-        <v>378.71940000000001</v>
+        <v>379.72671772414839</v>
       </c>
       <c r="Y19" s="14">
-        <v>377.57560000000001</v>
+        <v>391.78265125658868</v>
       </c>
       <c r="Z19" s="14">
-        <v>374.99160000000001</v>
+        <v>355.41297128825886</v>
       </c>
       <c r="AA19" s="14">
-        <v>378.85419999999999</v>
+        <v>402.67335586678234</v>
       </c>
       <c r="AB19" s="14">
-        <v>387.63</v>
+        <v>367.28890943206227</v>
       </c>
       <c r="AC19" s="14">
-        <v>376.59289999999999</v>
+        <v>391.13140953102345</v>
       </c>
       <c r="AD19" s="14">
-        <v>349.83620000000002</v>
+        <v>359.41142278748697</v>
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
@@ -8295,76 +8308,76 @@
         <v>54</v>
       </c>
       <c r="G20" s="14">
-        <v>652.00310000000002</v>
+        <v>678.47659821536365</v>
       </c>
       <c r="H20" s="14">
-        <v>607.97709999999995</v>
+        <v>570.71046184276622</v>
       </c>
       <c r="I20" s="14">
-        <v>577.79399999999998</v>
+        <v>542.70806738381907</v>
       </c>
       <c r="J20" s="14">
-        <v>563.04399999999998</v>
+        <v>523.98919788957528</v>
       </c>
       <c r="K20" s="14">
-        <v>556.49009999999998</v>
+        <v>547.11237106802321</v>
       </c>
       <c r="L20" s="14">
-        <v>557.90809999999999</v>
+        <v>594.54085126603468</v>
       </c>
       <c r="M20" s="14">
-        <v>586.35749999999996</v>
+        <v>563.07313786323778</v>
       </c>
       <c r="N20" s="14">
-        <v>628.77369999999996</v>
+        <v>573.65483082719618</v>
       </c>
       <c r="O20" s="14">
-        <v>678.41520000000003</v>
+        <v>723.56822057835507</v>
       </c>
       <c r="P20" s="14">
-        <v>718.62720000000002</v>
+        <v>702.7492214469687</v>
       </c>
       <c r="Q20" s="14">
-        <v>756.27009999999996</v>
+        <v>737.15310660784735</v>
       </c>
       <c r="R20" s="14">
-        <v>776.01769999999999</v>
+        <v>805.24443550233093</v>
       </c>
       <c r="S20" s="14">
-        <v>788.38789999999995</v>
+        <v>753.52435398415582</v>
       </c>
       <c r="T20" s="14">
-        <v>789.87279999999998</v>
+        <v>853.44894670134704</v>
       </c>
       <c r="U20" s="14">
-        <v>765.16219999999998</v>
+        <v>821.81241708050266</v>
       </c>
       <c r="V20" s="14">
-        <v>753.42250000000001</v>
+        <v>789.28323786574754</v>
       </c>
       <c r="W20" s="14">
-        <v>752.35590000000002</v>
+        <v>769.90355919549711</v>
       </c>
       <c r="X20" s="14">
-        <v>757.43880000000001</v>
+        <v>691.1446142014928</v>
       </c>
       <c r="Y20" s="14">
-        <v>755.15129999999999</v>
+        <v>724.4860135962947</v>
       </c>
       <c r="Z20" s="14">
-        <v>749.98310000000004</v>
+        <v>804.43717076734129</v>
       </c>
       <c r="AA20" s="14">
-        <v>757.70839999999998</v>
+        <v>777.55296235923322</v>
       </c>
       <c r="AB20" s="14">
-        <v>775.26009999999997</v>
+        <v>805.37491326249472</v>
       </c>
       <c r="AC20" s="14">
-        <v>753.18589999999995</v>
+        <v>804.5625932624107</v>
       </c>
       <c r="AD20" s="14">
-        <v>699.67240000000004</v>
+        <v>674.00681131950967</v>
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
@@ -8382,76 +8395,76 @@
         <v>54</v>
       </c>
       <c r="G21" s="14">
-        <v>163.0008</v>
+        <v>154.02050794989353</v>
       </c>
       <c r="H21" s="14">
-        <v>151.99430000000001</v>
+        <v>156.38745721364361</v>
       </c>
       <c r="I21" s="14">
-        <v>144.4485</v>
+        <v>135.94216911737902</v>
       </c>
       <c r="J21" s="14">
-        <v>140.761</v>
+        <v>132.26354658961924</v>
       </c>
       <c r="K21" s="14">
-        <v>139.1225</v>
+        <v>133.5341266619526</v>
       </c>
       <c r="L21" s="14">
-        <v>139.477</v>
+        <v>128.99648568861772</v>
       </c>
       <c r="M21" s="14">
-        <v>146.58940000000001</v>
+        <v>161.18231124115894</v>
       </c>
       <c r="N21" s="14">
-        <v>157.1934</v>
+        <v>154.82771545454176</v>
       </c>
       <c r="O21" s="14">
-        <v>169.60380000000001</v>
+        <v>161.6577708792652</v>
       </c>
       <c r="P21" s="14">
-        <v>179.6568</v>
+        <v>178.82938083320155</v>
       </c>
       <c r="Q21" s="14">
-        <v>189.0675</v>
+        <v>207.57199699025614</v>
       </c>
       <c r="R21" s="14">
-        <v>194.0044</v>
+        <v>178.43341044048347</v>
       </c>
       <c r="S21" s="14">
-        <v>197.09700000000001</v>
+        <v>183.90530386089512</v>
       </c>
       <c r="T21" s="14">
-        <v>197.4682</v>
+        <v>201.28216180710839</v>
       </c>
       <c r="U21" s="14">
-        <v>191.29050000000001</v>
+        <v>181.10076516169329</v>
       </c>
       <c r="V21" s="14">
-        <v>188.35560000000001</v>
+        <v>185.916395775105</v>
       </c>
       <c r="W21" s="14">
-        <v>188.089</v>
+        <v>170.63364337695364</v>
       </c>
       <c r="X21" s="14">
-        <v>189.3597</v>
+        <v>191.79216309871219</v>
       </c>
       <c r="Y21" s="14">
-        <v>188.7878</v>
+        <v>180.72695174077435</v>
       </c>
       <c r="Z21" s="14">
-        <v>187.4958</v>
+        <v>200.21224274529169</v>
       </c>
       <c r="AA21" s="14">
-        <v>189.4271</v>
+        <v>202.23367915083244</v>
       </c>
       <c r="AB21" s="14">
-        <v>193.815</v>
+        <v>189.0950743550311</v>
       </c>
       <c r="AC21" s="14">
-        <v>188.29650000000001</v>
+        <v>192.41516768212568</v>
       </c>
       <c r="AD21" s="14">
-        <v>174.91810000000001</v>
+        <v>170.01224374093783</v>
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
@@ -8469,76 +8482,76 @@
         <v>54</v>
       </c>
       <c r="G22" s="14">
-        <v>815.00390000000004</v>
+        <v>839.23461458446116</v>
       </c>
       <c r="H22" s="14">
-        <v>759.97140000000002</v>
+        <v>764.11349722310831</v>
       </c>
       <c r="I22" s="14">
-        <v>722.24249999999995</v>
+        <v>706.09085079746035</v>
       </c>
       <c r="J22" s="14">
-        <v>703.80499999999995</v>
+        <v>758.69324001765688</v>
       </c>
       <c r="K22" s="14">
-        <v>695.61260000000004</v>
+        <v>637.52771007804915</v>
       </c>
       <c r="L22" s="14">
-        <v>697.38520000000005</v>
+        <v>646.55681185767639</v>
       </c>
       <c r="M22" s="14">
-        <v>732.94680000000005</v>
+        <v>734.09084201026383</v>
       </c>
       <c r="N22" s="14">
-        <v>785.96720000000005</v>
+        <v>759.64276331443932</v>
       </c>
       <c r="O22" s="14">
-        <v>848.01900000000001</v>
+        <v>848.03101115174911</v>
       </c>
       <c r="P22" s="14">
-        <v>898.28399999999999</v>
+        <v>876.81601651861297</v>
       </c>
       <c r="Q22" s="14">
-        <v>945.33770000000004</v>
+        <v>895.36960572386351</v>
       </c>
       <c r="R22" s="14">
-        <v>970.02210000000002</v>
+        <v>976.66845378546282</v>
       </c>
       <c r="S22" s="14">
-        <v>985.48490000000004</v>
+        <v>944.16872499448937</v>
       </c>
       <c r="T22" s="14">
-        <v>987.34100000000001</v>
+        <v>973.79813037379961</v>
       </c>
       <c r="U22" s="14">
-        <v>956.45270000000005</v>
+        <v>1035.9544950849654</v>
       </c>
       <c r="V22" s="14">
-        <v>941.77819999999997</v>
+        <v>927.39980664266022</v>
       </c>
       <c r="W22" s="14">
-        <v>940.44489999999996</v>
+        <v>952.684322053046</v>
       </c>
       <c r="X22" s="14">
-        <v>946.79849999999999</v>
+        <v>872.35322840100901</v>
       </c>
       <c r="Y22" s="14">
-        <v>943.93910000000005</v>
+        <v>1011.1447916501444</v>
       </c>
       <c r="Z22" s="14">
-        <v>937.47889999999995</v>
+        <v>853.83959319054418</v>
       </c>
       <c r="AA22" s="14">
-        <v>947.13549999999998</v>
+        <v>869.84801870155104</v>
       </c>
       <c r="AB22" s="14">
-        <v>969.07510000000002</v>
+        <v>933.44334789036657</v>
       </c>
       <c r="AC22" s="14">
-        <v>941.48230000000001</v>
+        <v>847.40985946700198</v>
       </c>
       <c r="AD22" s="14">
-        <v>874.59050000000002</v>
+        <v>867.7568780145042</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
@@ -8556,76 +8569,76 @@
         <v>54</v>
       </c>
       <c r="G23" s="14">
-        <v>260.80119999999999</v>
+        <v>255.4542786049079</v>
       </c>
       <c r="H23" s="14">
-        <v>243.1909</v>
+        <v>254.91853554139217</v>
       </c>
       <c r="I23" s="14">
-        <v>231.11760000000001</v>
+        <v>249.63580023495788</v>
       </c>
       <c r="J23" s="14">
-        <v>225.2176</v>
+        <v>211.39173553983275</v>
       </c>
       <c r="K23" s="14">
-        <v>222.596</v>
+        <v>205.27669749071362</v>
       </c>
       <c r="L23" s="14">
-        <v>223.16329999999999</v>
+        <v>204.87671877436716</v>
       </c>
       <c r="M23" s="14">
-        <v>234.54300000000001</v>
+        <v>248.51013153871733</v>
       </c>
       <c r="N23" s="14">
-        <v>251.5095</v>
+        <v>237.01792994549345</v>
       </c>
       <c r="O23" s="14">
-        <v>271.36610000000002</v>
+        <v>261.41472506790006</v>
       </c>
       <c r="P23" s="14">
-        <v>287.45089999999999</v>
+        <v>268.72259985058491</v>
       </c>
       <c r="Q23" s="14">
-        <v>302.50810000000001</v>
+        <v>278.22086170498994</v>
       </c>
       <c r="R23" s="14">
-        <v>310.40710000000001</v>
+        <v>335.02839780994856</v>
       </c>
       <c r="S23" s="14">
-        <v>315.35520000000002</v>
+        <v>340.06918242254579</v>
       </c>
       <c r="T23" s="14">
-        <v>315.94909999999999</v>
+        <v>333.48924225138819</v>
       </c>
       <c r="U23" s="14">
-        <v>306.06490000000002</v>
+        <v>286.00544057757565</v>
       </c>
       <c r="V23" s="14">
-        <v>301.36900000000003</v>
+        <v>301.54667879988227</v>
       </c>
       <c r="W23" s="14">
-        <v>300.94240000000002</v>
+        <v>291.74363022299309</v>
       </c>
       <c r="X23" s="14">
-        <v>302.97550000000001</v>
+        <v>288.72380932382549</v>
       </c>
       <c r="Y23" s="14">
-        <v>302.06049999999999</v>
+        <v>277.01998852562838</v>
       </c>
       <c r="Z23" s="14">
-        <v>299.9932</v>
+        <v>297.51291001286933</v>
       </c>
       <c r="AA23" s="14">
-        <v>303.08339999999998</v>
+        <v>281.67301312139028</v>
       </c>
       <c r="AB23" s="14">
-        <v>310.10399999999998</v>
+        <v>306.80686677986859</v>
       </c>
       <c r="AC23" s="14">
-        <v>301.27429999999998</v>
+        <v>308.35561348225286</v>
       </c>
       <c r="AD23" s="14">
-        <v>279.8689</v>
+        <v>276.81856914436793</v>
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
@@ -8643,76 +8656,76 @@
         <v>54</v>
       </c>
       <c r="G24" s="14">
-        <v>163.0008</v>
+        <v>173.43048990917094</v>
       </c>
       <c r="H24" s="14">
-        <v>151.99430000000001</v>
+        <v>155.97104071403476</v>
       </c>
       <c r="I24" s="14">
-        <v>144.4485</v>
+        <v>131.77713297411634</v>
       </c>
       <c r="J24" s="14">
-        <v>140.761</v>
+        <v>151.44881817653237</v>
       </c>
       <c r="K24" s="14">
-        <v>139.1225</v>
+        <v>129.36255967162788</v>
       </c>
       <c r="L24" s="14">
-        <v>139.477</v>
+        <v>133.57278656003868</v>
       </c>
       <c r="M24" s="14">
-        <v>146.58940000000001</v>
+        <v>132.48966174568628</v>
       </c>
       <c r="N24" s="14">
-        <v>157.1934</v>
+        <v>146.72693657586575</v>
       </c>
       <c r="O24" s="14">
-        <v>169.60380000000001</v>
+        <v>184.76660505686192</v>
       </c>
       <c r="P24" s="14">
-        <v>179.6568</v>
+        <v>171.71063835914703</v>
       </c>
       <c r="Q24" s="14">
-        <v>189.0675</v>
+        <v>196.48761808350358</v>
       </c>
       <c r="R24" s="14">
-        <v>194.0044</v>
+        <v>180.32011987645868</v>
       </c>
       <c r="S24" s="14">
-        <v>197.09700000000001</v>
+        <v>203.99459624162287</v>
       </c>
       <c r="T24" s="14">
-        <v>197.4682</v>
+        <v>179.63359308198895</v>
       </c>
       <c r="U24" s="14">
-        <v>191.29050000000001</v>
+        <v>197.60692819660974</v>
       </c>
       <c r="V24" s="14">
-        <v>188.35560000000001</v>
+        <v>203.0366832602775</v>
       </c>
       <c r="W24" s="14">
-        <v>188.089</v>
+        <v>196.41787707554136</v>
       </c>
       <c r="X24" s="14">
-        <v>189.3597</v>
+        <v>207.05544402193513</v>
       </c>
       <c r="Y24" s="14">
-        <v>188.7878</v>
+        <v>175.21920690791131</v>
       </c>
       <c r="Z24" s="14">
-        <v>187.4958</v>
+        <v>169.22076887235181</v>
       </c>
       <c r="AA24" s="14">
-        <v>189.4271</v>
+        <v>182.67733600767474</v>
       </c>
       <c r="AB24" s="14">
-        <v>193.815</v>
+        <v>180.23950933699896</v>
       </c>
       <c r="AC24" s="14">
-        <v>188.29650000000001</v>
+        <v>201.28991686092709</v>
       </c>
       <c r="AD24" s="14">
-        <v>174.91810000000001</v>
+        <v>170.21087064952755</v>
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
@@ -8730,76 +8743,76 @@
         <v>62</v>
       </c>
       <c r="G25" s="14">
-        <v>163.0008</v>
+        <v>173.97507940882238</v>
       </c>
       <c r="H25" s="14">
-        <v>151.99430000000001</v>
+        <v>161.40801736641308</v>
       </c>
       <c r="I25" s="14">
-        <v>144.4485</v>
+        <v>156.07729707607368</v>
       </c>
       <c r="J25" s="14">
-        <v>140.761</v>
+        <v>133.76820311633497</v>
       </c>
       <c r="K25" s="14">
-        <v>139.1225</v>
+        <v>142.335378023857</v>
       </c>
       <c r="L25" s="14">
-        <v>139.477</v>
+        <v>152.03164091911384</v>
       </c>
       <c r="M25" s="14">
-        <v>146.58940000000001</v>
+        <v>150.11296908487319</v>
       </c>
       <c r="N25" s="14">
-        <v>157.1934</v>
+        <v>165.90670590248234</v>
       </c>
       <c r="O25" s="14">
-        <v>169.60380000000001</v>
+        <v>176.35201796388344</v>
       </c>
       <c r="P25" s="14">
-        <v>179.6568</v>
+        <v>189.27066885029257</v>
       </c>
       <c r="Q25" s="14">
-        <v>189.0675</v>
+        <v>191.7740798781667</v>
       </c>
       <c r="R25" s="14">
-        <v>194.0044</v>
+        <v>185.49293523905871</v>
       </c>
       <c r="S25" s="14">
-        <v>197.09700000000001</v>
+        <v>200.82903099091803</v>
       </c>
       <c r="T25" s="14">
-        <v>197.4682</v>
+        <v>189.23158015742794</v>
       </c>
       <c r="U25" s="14">
-        <v>191.29050000000001</v>
+        <v>182.75807966403028</v>
       </c>
       <c r="V25" s="14">
-        <v>188.35560000000001</v>
+        <v>177.40121930676887</v>
       </c>
       <c r="W25" s="14">
-        <v>188.089</v>
+        <v>182.97640520374145</v>
       </c>
       <c r="X25" s="14">
-        <v>189.3597</v>
+        <v>174.16402253196711</v>
       </c>
       <c r="Y25" s="14">
-        <v>188.7878</v>
+        <v>191.16041974101407</v>
       </c>
       <c r="Z25" s="14">
-        <v>187.4958</v>
+        <v>177.73868854645693</v>
       </c>
       <c r="AA25" s="14">
-        <v>189.4271</v>
+        <v>198.25385419059731</v>
       </c>
       <c r="AB25" s="14">
-        <v>193.815</v>
+        <v>199.67373226590919</v>
       </c>
       <c r="AC25" s="14">
-        <v>188.29650000000001</v>
+        <v>200.30512157792651</v>
       </c>
       <c r="AD25" s="14">
-        <v>174.91810000000001</v>
+        <v>171.64736958501004</v>
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.25">
@@ -8817,76 +8830,76 @@
         <v>62</v>
       </c>
       <c r="G26" s="14">
-        <v>518.46180000000004</v>
+        <v>511.45956133953604</v>
       </c>
       <c r="H26" s="14">
-        <v>481.01569999999998</v>
+        <v>512.23224071525055</v>
       </c>
       <c r="I26" s="14">
-        <v>452.80270000000002</v>
+        <v>443.66722775675208</v>
       </c>
       <c r="J26" s="14">
-        <v>437.55630000000002</v>
+        <v>456.35603216999806</v>
       </c>
       <c r="K26" s="14">
-        <v>429.17739999999998</v>
+        <v>392.4079442904935</v>
       </c>
       <c r="L26" s="14">
-        <v>428.68349999999998</v>
+        <v>456.40946066578852</v>
       </c>
       <c r="M26" s="14">
-        <v>454.51499999999999</v>
+        <v>490.50788793491182</v>
       </c>
       <c r="N26" s="14">
-        <v>493.41989999999998</v>
+        <v>473.08409017322725</v>
       </c>
       <c r="O26" s="14">
-        <v>530.65250000000003</v>
+        <v>527.50288197375005</v>
       </c>
       <c r="P26" s="14">
-        <v>558.24699999999996</v>
+        <v>503.77652079125636</v>
       </c>
       <c r="Q26" s="14">
-        <v>581.19749999999999</v>
+        <v>591.1551899607864</v>
       </c>
       <c r="R26" s="14">
-        <v>587.67600000000004</v>
+        <v>532.67318753802829</v>
       </c>
       <c r="S26" s="14">
-        <v>588.05259999999998</v>
+        <v>615.34467039762046</v>
       </c>
       <c r="T26" s="14">
-        <v>581.47770000000003</v>
+        <v>638.19163247761969</v>
       </c>
       <c r="U26" s="14">
-        <v>558.53890000000001</v>
+        <v>522.95520574860268</v>
       </c>
       <c r="V26" s="14">
-        <v>550.98400000000004</v>
+        <v>538.2217211212851</v>
       </c>
       <c r="W26" s="14">
-        <v>549.31960000000004</v>
+        <v>584.39435039207694</v>
       </c>
       <c r="X26" s="14">
-        <v>552.6739</v>
+        <v>584.06095824522242</v>
       </c>
       <c r="Y26" s="14">
-        <v>562.58680000000004</v>
+        <v>567.79019473394021</v>
       </c>
       <c r="Z26" s="14">
-        <v>581.69069999999999</v>
+        <v>541.51118365719049</v>
       </c>
       <c r="AA26" s="14">
-        <v>602.28959999999995</v>
+        <v>555.47715916306049</v>
       </c>
       <c r="AB26" s="14">
-        <v>616.13580000000002</v>
+        <v>587.09152703758411</v>
       </c>
       <c r="AC26" s="14">
-        <v>580.53039999999999</v>
+        <v>551.55787522280912</v>
       </c>
       <c r="AD26" s="14">
-        <v>552.56700000000001</v>
+        <v>544.70907857210079</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
@@ -8904,76 +8917,76 @@
         <v>54</v>
       </c>
       <c r="G27" s="14">
-        <v>241.94890000000001</v>
+        <v>247.81765870424309</v>
       </c>
       <c r="H27" s="14">
-        <v>224.47399999999999</v>
+        <v>224.9971752640773</v>
       </c>
       <c r="I27" s="14">
-        <v>211.30789999999999</v>
+        <v>194.8127285923654</v>
       </c>
       <c r="J27" s="14">
-        <v>204.19300000000001</v>
+        <v>211.80887314327705</v>
       </c>
       <c r="K27" s="14">
-        <v>200.28280000000001</v>
+        <v>207.90808066722474</v>
       </c>
       <c r="L27" s="14">
-        <v>200.0523</v>
+        <v>205.56790678438452</v>
       </c>
       <c r="M27" s="14">
-        <v>212.107</v>
+        <v>211.82040127692173</v>
       </c>
       <c r="N27" s="14">
-        <v>230.26259999999999</v>
+        <v>210.08874273347394</v>
       </c>
       <c r="O27" s="14">
-        <v>247.6378</v>
+        <v>233.16368602466423</v>
       </c>
       <c r="P27" s="14">
-        <v>260.51519999999999</v>
+        <v>266.87733711247336</v>
       </c>
       <c r="Q27" s="14">
-        <v>271.22550000000001</v>
+        <v>255.15848409062343</v>
       </c>
       <c r="R27" s="14">
-        <v>274.24880000000002</v>
+        <v>292.07370465057869</v>
       </c>
       <c r="S27" s="14">
-        <v>274.42450000000002</v>
+        <v>258.85184882229873</v>
       </c>
       <c r="T27" s="14">
-        <v>271.35629999999998</v>
+        <v>276.39442164656452</v>
       </c>
       <c r="U27" s="14">
-        <v>260.6515</v>
+        <v>247.77918424939426</v>
       </c>
       <c r="V27" s="14">
-        <v>257.1259</v>
+        <v>278.7170021972442</v>
       </c>
       <c r="W27" s="14">
-        <v>256.3492</v>
+        <v>243.61535792491927</v>
       </c>
       <c r="X27" s="14">
-        <v>257.91449999999998</v>
+        <v>272.52178548770604</v>
       </c>
       <c r="Y27" s="14">
-        <v>262.54050000000001</v>
+        <v>275.05894749415717</v>
       </c>
       <c r="Z27" s="14">
-        <v>271.4556</v>
+        <v>264.1746552040961</v>
       </c>
       <c r="AA27" s="14">
-        <v>281.06849999999997</v>
+        <v>289.62077828882207</v>
       </c>
       <c r="AB27" s="14">
-        <v>287.52999999999997</v>
+        <v>299.0509903716503</v>
       </c>
       <c r="AC27" s="14">
-        <v>270.91419999999999</v>
+        <v>279.53614043514108</v>
       </c>
       <c r="AD27" s="14">
-        <v>257.8646</v>
+        <v>252.49022530867489</v>
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
@@ -8991,76 +9004,76 @@
         <v>54</v>
       </c>
       <c r="G28" s="14">
-        <v>345.64120000000003</v>
+        <v>372.13789215462344</v>
       </c>
       <c r="H28" s="14">
-        <v>320.6771</v>
+        <v>309.60548737488364</v>
       </c>
       <c r="I28" s="14">
-        <v>301.86840000000001</v>
+        <v>326.2922978180236</v>
       </c>
       <c r="J28" s="14">
-        <v>291.70420000000001</v>
+        <v>291.58463709973427</v>
       </c>
       <c r="K28" s="14">
-        <v>286.11829999999998</v>
+        <v>306.78273400060539</v>
       </c>
       <c r="L28" s="14">
-        <v>285.78899999999999</v>
+        <v>287.24785330677292</v>
       </c>
       <c r="M28" s="14">
-        <v>303.01</v>
+        <v>297.25050257823244</v>
       </c>
       <c r="N28" s="14">
-        <v>328.94659999999999</v>
+        <v>337.84381197976563</v>
       </c>
       <c r="O28" s="14">
-        <v>353.76830000000001</v>
+        <v>355.13444891095429</v>
       </c>
       <c r="P28" s="14">
-        <v>372.16460000000001</v>
+        <v>355.12261385406208</v>
       </c>
       <c r="Q28" s="14">
-        <v>387.46499999999997</v>
+        <v>399.61413504091536</v>
       </c>
       <c r="R28" s="14">
-        <v>391.78399999999999</v>
+        <v>354.84075540538157</v>
       </c>
       <c r="S28" s="14">
-        <v>392.03500000000003</v>
+        <v>380.39070812364241</v>
       </c>
       <c r="T28" s="14">
-        <v>387.65179999999998</v>
+        <v>409.04265146322018</v>
       </c>
       <c r="U28" s="14">
-        <v>372.35919999999999</v>
+        <v>406.29067871095566</v>
       </c>
       <c r="V28" s="14">
-        <v>367.3227</v>
+        <v>368.95516470470426</v>
       </c>
       <c r="W28" s="14">
-        <v>366.2131</v>
+        <v>347.32408013930274</v>
       </c>
       <c r="X28" s="14">
-        <v>368.44929999999999</v>
+        <v>353.58151585406932</v>
       </c>
       <c r="Y28" s="14">
-        <v>375.05790000000002</v>
+        <v>385.40246165469938</v>
       </c>
       <c r="Z28" s="14">
-        <v>387.79379999999998</v>
+        <v>411.70216869299031</v>
       </c>
       <c r="AA28" s="14">
-        <v>401.52640000000002</v>
+        <v>437.24610104429286</v>
       </c>
       <c r="AB28" s="14">
-        <v>410.75720000000001</v>
+        <v>390.0831803780041</v>
       </c>
       <c r="AC28" s="14">
-        <v>387.02030000000002</v>
+        <v>424.59905830298203</v>
       </c>
       <c r="AD28" s="14">
-        <v>368.37799999999999</v>
+        <v>385.16608515211936</v>
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.25">
@@ -9078,76 +9091,76 @@
         <v>54</v>
       </c>
       <c r="G29" s="14">
-        <v>691.28240000000005</v>
+        <v>678.04646824253132</v>
       </c>
       <c r="H29" s="14">
-        <v>641.35419999999999</v>
+        <v>602.56194020177372</v>
       </c>
       <c r="I29" s="14">
-        <v>603.73689999999999</v>
+        <v>594.50254431115354</v>
       </c>
       <c r="J29" s="14">
-        <v>583.40840000000003</v>
+        <v>595.53383965176545</v>
       </c>
       <c r="K29" s="14">
-        <v>572.23649999999998</v>
+        <v>518.03175139927839</v>
       </c>
       <c r="L29" s="14">
-        <v>571.57799999999997</v>
+        <v>610.55430081780605</v>
       </c>
       <c r="M29" s="14">
-        <v>606.02</v>
+        <v>612.36691159565032</v>
       </c>
       <c r="N29" s="14">
-        <v>657.89319999999998</v>
+        <v>712.78347505255454</v>
       </c>
       <c r="O29" s="14">
-        <v>707.53660000000002</v>
+        <v>664.40715523859831</v>
       </c>
       <c r="P29" s="14">
-        <v>744.32929999999999</v>
+        <v>689.54025040135116</v>
       </c>
       <c r="Q29" s="14">
-        <v>774.93</v>
+        <v>763.22885427324616</v>
       </c>
       <c r="R29" s="14">
-        <v>783.56790000000001</v>
+        <v>848.2751495819183</v>
       </c>
       <c r="S29" s="14">
-        <v>784.07010000000002</v>
+        <v>842.32032359593848</v>
       </c>
       <c r="T29" s="14">
-        <v>775.30359999999996</v>
+        <v>751.5993064840377</v>
       </c>
       <c r="U29" s="14">
-        <v>744.71849999999995</v>
+        <v>727.2388184118355</v>
       </c>
       <c r="V29" s="14">
-        <v>734.6454</v>
+        <v>807.58499623292187</v>
       </c>
       <c r="W29" s="14">
-        <v>732.42619999999999</v>
+        <v>711.50059236566392</v>
       </c>
       <c r="X29" s="14">
-        <v>736.89859999999999</v>
+        <v>774.53743966249647</v>
       </c>
       <c r="Y29" s="14">
-        <v>750.11569999999995</v>
+        <v>678.74778965873725</v>
       </c>
       <c r="Z29" s="14">
-        <v>775.58749999999998</v>
+        <v>723.13842234571371</v>
       </c>
       <c r="AA29" s="14">
-        <v>803.05280000000005</v>
+        <v>850.2711251867164</v>
       </c>
       <c r="AB29" s="14">
-        <v>821.51430000000005</v>
+        <v>761.15081375890554</v>
       </c>
       <c r="AC29" s="14">
-        <v>774.04049999999995</v>
+        <v>740.4870457154783</v>
       </c>
       <c r="AD29" s="14">
-        <v>736.7559</v>
+        <v>675.41293758819779</v>
       </c>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
@@ -9165,76 +9178,76 @@
         <v>54</v>
       </c>
       <c r="G30" s="14">
-        <v>172.82060000000001</v>
+        <v>188.58795981258271</v>
       </c>
       <c r="H30" s="14">
-        <v>160.33860000000001</v>
+        <v>145.20776762446965</v>
       </c>
       <c r="I30" s="14">
-        <v>150.9342</v>
+        <v>149.82585160593712</v>
       </c>
       <c r="J30" s="14">
-        <v>145.85210000000001</v>
+        <v>155.47002014647944</v>
       </c>
       <c r="K30" s="14">
-        <v>143.0591</v>
+        <v>134.1464091608654</v>
       </c>
       <c r="L30" s="14">
-        <v>142.89449999999999</v>
+        <v>150.67233015548919</v>
       </c>
       <c r="M30" s="14">
-        <v>151.505</v>
+        <v>165.45864262515434</v>
       </c>
       <c r="N30" s="14">
-        <v>164.47329999999999</v>
+        <v>171.37113608904741</v>
       </c>
       <c r="O30" s="14">
-        <v>176.88419999999999</v>
+        <v>168.47167237986505</v>
       </c>
       <c r="P30" s="14">
-        <v>186.0823</v>
+        <v>186.23889265183786</v>
       </c>
       <c r="Q30" s="14">
-        <v>193.73249999999999</v>
+        <v>176.48277805399249</v>
       </c>
       <c r="R30" s="14">
-        <v>195.892</v>
+        <v>207.95316842072623</v>
       </c>
       <c r="S30" s="14">
-        <v>196.01750000000001</v>
+        <v>180.74873557417871</v>
       </c>
       <c r="T30" s="14">
-        <v>193.82589999999999</v>
+        <v>205.52942351719426</v>
       </c>
       <c r="U30" s="14">
-        <v>186.17959999999999</v>
+        <v>173.47762531671643</v>
       </c>
       <c r="V30" s="14">
-        <v>183.66130000000001</v>
+        <v>197.11028784111565</v>
       </c>
       <c r="W30" s="14">
-        <v>183.10650000000001</v>
+        <v>199.9967133145222</v>
       </c>
       <c r="X30" s="14">
-        <v>184.22460000000001</v>
+        <v>186.92431164535279</v>
       </c>
       <c r="Y30" s="14">
-        <v>187.52889999999999</v>
+        <v>199.88951786249643</v>
       </c>
       <c r="Z30" s="14">
-        <v>193.89689999999999</v>
+        <v>198.09293207949582</v>
       </c>
       <c r="AA30" s="14">
-        <v>200.76320000000001</v>
+        <v>190.32276364519632</v>
       </c>
       <c r="AB30" s="14">
-        <v>205.37860000000001</v>
+        <v>218.1616462945851</v>
       </c>
       <c r="AC30" s="14">
-        <v>193.51009999999999</v>
+        <v>186.63233114444134</v>
       </c>
       <c r="AD30" s="14">
-        <v>184.18899999999999</v>
+        <v>194.34784920728981</v>
       </c>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
@@ -9252,76 +9265,76 @@
         <v>54</v>
       </c>
       <c r="G31" s="14">
-        <v>864.10310000000004</v>
+        <v>819.04117776667158</v>
       </c>
       <c r="H31" s="14">
-        <v>801.69280000000003</v>
+        <v>747.71273101412703</v>
       </c>
       <c r="I31" s="14">
-        <v>754.67110000000002</v>
+        <v>782.83571364014188</v>
       </c>
       <c r="J31" s="14">
-        <v>729.26059999999995</v>
+        <v>674.2752789337361</v>
       </c>
       <c r="K31" s="14">
-        <v>715.29560000000004</v>
+        <v>747.84516509453442</v>
       </c>
       <c r="L31" s="14">
-        <v>714.47249999999997</v>
+        <v>742.35896992014159</v>
       </c>
       <c r="M31" s="14">
-        <v>757.52499999999998</v>
+        <v>793.69649823572399</v>
       </c>
       <c r="N31" s="14">
-        <v>822.36649999999997</v>
+        <v>865.9406598326492</v>
       </c>
       <c r="O31" s="14">
-        <v>884.42079999999999</v>
+        <v>882.28621904712145</v>
       </c>
       <c r="P31" s="14">
-        <v>930.41160000000002</v>
+        <v>957.40851940449841</v>
       </c>
       <c r="Q31" s="14">
-        <v>968.66240000000005</v>
+        <v>1058.0262132395842</v>
       </c>
       <c r="R31" s="14">
-        <v>979.45989999999995</v>
+        <v>954.50233402591516</v>
       </c>
       <c r="S31" s="14">
-        <v>980.08759999999995</v>
+        <v>947.90266846027021</v>
       </c>
       <c r="T31" s="14">
-        <v>969.12950000000001</v>
+        <v>967.60586931974262</v>
       </c>
       <c r="U31" s="14">
-        <v>930.8981</v>
+        <v>927.61368395407851</v>
       </c>
       <c r="V31" s="14">
-        <v>918.30669999999998</v>
+        <v>836.53972712626819</v>
       </c>
       <c r="W31" s="14">
-        <v>915.53269999999998</v>
+        <v>920.6348995713081</v>
       </c>
       <c r="X31" s="14">
-        <v>921.1232</v>
+        <v>993.43658605609028</v>
       </c>
       <c r="Y31" s="14">
-        <v>937.64469999999994</v>
+        <v>941.48158012756539</v>
       </c>
       <c r="Z31" s="14">
-        <v>969.48440000000005</v>
+        <v>1016.1136888530684</v>
       </c>
       <c r="AA31" s="14">
-        <v>1003.816</v>
+        <v>1070.87227690905</v>
       </c>
       <c r="AB31" s="14">
-        <v>1026.8929000000001</v>
+        <v>1010.8403158667284</v>
       </c>
       <c r="AC31" s="14">
-        <v>967.55070000000001</v>
+        <v>985.2254211930051</v>
       </c>
       <c r="AD31" s="14">
-        <v>920.94489999999996</v>
+        <v>892.51124457745561</v>
       </c>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
@@ -9339,76 +9352,76 @@
         <v>54</v>
       </c>
       <c r="G32" s="14">
-        <v>276.51299999999998</v>
+        <v>265.85124141282859</v>
       </c>
       <c r="H32" s="14">
-        <v>256.54169999999999</v>
+        <v>238.04100628135561</v>
       </c>
       <c r="I32" s="14">
-        <v>241.4948</v>
+        <v>254.29664357363936</v>
       </c>
       <c r="J32" s="14">
-        <v>233.36340000000001</v>
+        <v>240.37705513628481</v>
       </c>
       <c r="K32" s="14">
-        <v>228.8946</v>
+        <v>251.25489911768619</v>
       </c>
       <c r="L32" s="14">
-        <v>228.63120000000001</v>
+        <v>247.49922101599927</v>
       </c>
       <c r="M32" s="14">
-        <v>242.40799999999999</v>
+        <v>242.01606998761591</v>
       </c>
       <c r="N32" s="14">
-        <v>263.15730000000002</v>
+        <v>269.89912955254761</v>
       </c>
       <c r="O32" s="14">
-        <v>283.0147</v>
+        <v>272.92816702427729</v>
       </c>
       <c r="P32" s="14">
-        <v>297.73169999999999</v>
+        <v>293.4489209460865</v>
       </c>
       <c r="Q32" s="14">
-        <v>309.97199999999998</v>
+        <v>340.56014109400212</v>
       </c>
       <c r="R32" s="14">
-        <v>313.42720000000003</v>
+        <v>331.65178226375019</v>
       </c>
       <c r="S32" s="14">
-        <v>313.62799999999999</v>
+        <v>282.80748868405033</v>
       </c>
       <c r="T32" s="14">
-        <v>310.12150000000003</v>
+        <v>339.0542400867883</v>
       </c>
       <c r="U32" s="14">
-        <v>297.88740000000001</v>
+        <v>288.88540387865214</v>
       </c>
       <c r="V32" s="14">
-        <v>293.85820000000001</v>
+        <v>296.08412650692287</v>
       </c>
       <c r="W32" s="14">
-        <v>292.97050000000002</v>
+        <v>279.24958054824486</v>
       </c>
       <c r="X32" s="14">
-        <v>294.75940000000003</v>
+        <v>296.21445245211322</v>
       </c>
       <c r="Y32" s="14">
-        <v>300.04629999999997</v>
+        <v>321.67622223210464</v>
       </c>
       <c r="Z32" s="14">
-        <v>310.23500000000001</v>
+        <v>321.12504850441104</v>
       </c>
       <c r="AA32" s="14">
-        <v>321.22109999999998</v>
+        <v>318.26855404149859</v>
       </c>
       <c r="AB32" s="14">
-        <v>328.60570000000001</v>
+        <v>340.5459647773402</v>
       </c>
       <c r="AC32" s="14">
-        <v>309.61619999999999</v>
+        <v>339.89188373157975</v>
       </c>
       <c r="AD32" s="14">
-        <v>294.70240000000001</v>
+        <v>270.05107176518686</v>
       </c>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
@@ -9426,76 +9439,76 @@
         <v>54</v>
       </c>
       <c r="G33" s="14">
-        <v>172.82060000000001</v>
+        <v>177.7651785126954</v>
       </c>
       <c r="H33" s="14">
-        <v>160.33860000000001</v>
+        <v>159.22323432877542</v>
       </c>
       <c r="I33" s="14">
-        <v>150.9342</v>
+        <v>159.31502804699636</v>
       </c>
       <c r="J33" s="14">
-        <v>145.85210000000001</v>
+        <v>155.40302905144719</v>
       </c>
       <c r="K33" s="14">
-        <v>143.0591</v>
+        <v>130.57179349746025</v>
       </c>
       <c r="L33" s="14">
-        <v>142.89449999999999</v>
+        <v>144.40548200441225</v>
       </c>
       <c r="M33" s="14">
-        <v>151.505</v>
+        <v>162.55828295021843</v>
       </c>
       <c r="N33" s="14">
-        <v>164.47329999999999</v>
+        <v>175.2295389912635</v>
       </c>
       <c r="O33" s="14">
-        <v>176.88419999999999</v>
+        <v>188.44893013549549</v>
       </c>
       <c r="P33" s="14">
-        <v>186.0823</v>
+        <v>202.26536853313382</v>
       </c>
       <c r="Q33" s="14">
-        <v>193.73249999999999</v>
+        <v>194.4162382168642</v>
       </c>
       <c r="R33" s="14">
-        <v>195.892</v>
+        <v>179.24032389343211</v>
       </c>
       <c r="S33" s="14">
-        <v>196.01750000000001</v>
+        <v>186.78240258010499</v>
       </c>
       <c r="T33" s="14">
-        <v>193.82589999999999</v>
+        <v>198.08881404393247</v>
       </c>
       <c r="U33" s="14">
-        <v>186.17959999999999</v>
+        <v>174.44529266760327</v>
       </c>
       <c r="V33" s="14">
-        <v>183.66130000000001</v>
+        <v>169.93669550982324</v>
       </c>
       <c r="W33" s="14">
-        <v>183.10650000000001</v>
+        <v>182.22951691641762</v>
       </c>
       <c r="X33" s="14">
-        <v>184.22460000000001</v>
+        <v>181.18480448144894</v>
       </c>
       <c r="Y33" s="14">
-        <v>187.52889999999999</v>
+        <v>171.82862204602958</v>
       </c>
       <c r="Z33" s="14">
-        <v>193.89689999999999</v>
+        <v>187.67065485336016</v>
       </c>
       <c r="AA33" s="14">
-        <v>200.76320000000001</v>
+        <v>201.30510527056651</v>
       </c>
       <c r="AB33" s="14">
-        <v>205.37860000000001</v>
+        <v>217.679878392174</v>
       </c>
       <c r="AC33" s="14">
-        <v>193.51009999999999</v>
+        <v>191.2542609591207</v>
       </c>
       <c r="AD33" s="14">
-        <v>184.18899999999999</v>
+        <v>192.20878636663619</v>
       </c>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.25">
@@ -9513,76 +9526,76 @@
         <v>54</v>
       </c>
       <c r="G34" s="14">
-        <v>172.82060000000001</v>
+        <v>176.21495837679157</v>
       </c>
       <c r="H34" s="14">
-        <v>160.33860000000001</v>
+        <v>165.27770772442955</v>
       </c>
       <c r="I34" s="14">
-        <v>150.9342</v>
+        <v>160.11732089794026</v>
       </c>
       <c r="J34" s="14">
-        <v>145.85210000000001</v>
+        <v>158.40676635724321</v>
       </c>
       <c r="K34" s="14">
-        <v>143.0591</v>
+        <v>140.91576747582786</v>
       </c>
       <c r="L34" s="14">
-        <v>142.89449999999999</v>
+        <v>137.19228115263959</v>
       </c>
       <c r="M34" s="14">
-        <v>151.505</v>
+        <v>157.74917300820763</v>
       </c>
       <c r="N34" s="14">
-        <v>164.47329999999999</v>
+        <v>171.71478276900845</v>
       </c>
       <c r="O34" s="14">
-        <v>176.88419999999999</v>
+        <v>190.25473433330964</v>
       </c>
       <c r="P34" s="14">
-        <v>186.0823</v>
+        <v>199.57947327181628</v>
       </c>
       <c r="Q34" s="14">
-        <v>193.73249999999999</v>
+        <v>195.84515383218363</v>
       </c>
       <c r="R34" s="14">
-        <v>195.892</v>
+        <v>185.1682131052799</v>
       </c>
       <c r="S34" s="14">
-        <v>196.01750000000001</v>
+        <v>205.64330530657844</v>
       </c>
       <c r="T34" s="14">
-        <v>193.82589999999999</v>
+        <v>207.89943791275448</v>
       </c>
       <c r="U34" s="14">
-        <v>186.17959999999999</v>
+        <v>196.88717495592547</v>
       </c>
       <c r="V34" s="14">
-        <v>183.66130000000001</v>
+        <v>171.03304621041337</v>
       </c>
       <c r="W34" s="14">
-        <v>183.10650000000001</v>
+        <v>200.88608220895705</v>
       </c>
       <c r="X34" s="14">
-        <v>184.22460000000001</v>
+        <v>199.20827991449934</v>
       </c>
       <c r="Y34" s="14">
-        <v>187.52889999999999</v>
+        <v>183.55172015702664</v>
       </c>
       <c r="Z34" s="14">
-        <v>193.89689999999999</v>
+        <v>178.6061801306756</v>
       </c>
       <c r="AA34" s="14">
-        <v>200.76320000000001</v>
+        <v>210.10120113128238</v>
       </c>
       <c r="AB34" s="14">
-        <v>205.37860000000001</v>
+        <v>217.12298353033938</v>
       </c>
       <c r="AC34" s="14">
-        <v>193.51009999999999</v>
+        <v>197.59518841128562</v>
       </c>
       <c r="AD34" s="14">
-        <v>184.18899999999999</v>
+        <v>172.70237450224207</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
@@ -9600,76 +9613,76 @@
         <v>62</v>
       </c>
       <c r="G35" s="14">
-        <v>541.28980000000001</v>
+        <v>588.73792240762054</v>
       </c>
       <c r="H35" s="14">
-        <v>500.75299999999999</v>
+        <v>541.08104529382604</v>
       </c>
       <c r="I35" s="14">
-        <v>472.80309999999997</v>
+        <v>472.25373837173095</v>
       </c>
       <c r="J35" s="14">
-        <v>456.98899999999998</v>
+        <v>418.70768748479367</v>
       </c>
       <c r="K35" s="14">
-        <v>447.93830000000003</v>
+        <v>482.65539226570576</v>
       </c>
       <c r="L35" s="14">
-        <v>448.31380000000001</v>
+        <v>456.02552666890773</v>
       </c>
       <c r="M35" s="14">
-        <v>479.6653</v>
+        <v>447.1377641649957</v>
       </c>
       <c r="N35" s="14">
-        <v>532.03089999999997</v>
+        <v>520.42340993865855</v>
       </c>
       <c r="O35" s="14">
-        <v>581.11509999999998</v>
+        <v>608.43892738407919</v>
       </c>
       <c r="P35" s="14">
-        <v>605.68420000000003</v>
+        <v>587.32833782876958</v>
       </c>
       <c r="Q35" s="14">
-        <v>628.69510000000002</v>
+        <v>626.32564394056715</v>
       </c>
       <c r="R35" s="14">
-        <v>633.2038</v>
+        <v>589.31024399564581</v>
       </c>
       <c r="S35" s="14">
-        <v>631.23779999999999</v>
+        <v>612.84780271563716</v>
       </c>
       <c r="T35" s="14">
-        <v>622.02080000000001</v>
+        <v>646.15840919791162</v>
       </c>
       <c r="U35" s="14">
-        <v>595.49159999999995</v>
+        <v>625.18154735825203</v>
       </c>
       <c r="V35" s="14">
-        <v>590.3682</v>
+        <v>559.41750828454701</v>
       </c>
       <c r="W35" s="14">
-        <v>589.71910000000003</v>
+        <v>551.92497041570584</v>
       </c>
       <c r="X35" s="14">
-        <v>598.30939999999998</v>
+        <v>611.66721901166773</v>
       </c>
       <c r="Y35" s="14">
-        <v>628.44830000000002</v>
+        <v>671.45559644398406</v>
       </c>
       <c r="Z35" s="14">
-        <v>648.09050000000002</v>
+        <v>639.91208869152661</v>
       </c>
       <c r="AA35" s="14">
-        <v>652.99929999999995</v>
+        <v>665.53282888820524</v>
       </c>
       <c r="AB35" s="14">
-        <v>647.07749999999999</v>
+        <v>596.79308953294799</v>
       </c>
       <c r="AC35" s="14">
-        <v>606.91809999999998</v>
+        <v>616.59306835674818</v>
       </c>
       <c r="AD35" s="14">
-        <v>587.61800000000005</v>
+        <v>586.53913526255542</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
@@ -9687,76 +9700,76 @@
         <v>62</v>
       </c>
       <c r="G36" s="14">
-        <v>252.6019</v>
+        <v>234.86222257776797</v>
       </c>
       <c r="H36" s="14">
-        <v>233.68469999999999</v>
+        <v>241.7629457727742</v>
       </c>
       <c r="I36" s="14">
-        <v>220.64150000000001</v>
+        <v>226.47291329552797</v>
       </c>
       <c r="J36" s="14">
-        <v>213.26150000000001</v>
+        <v>233.44944064537754</v>
       </c>
       <c r="K36" s="14">
-        <v>209.03790000000001</v>
+        <v>188.97869580242514</v>
       </c>
       <c r="L36" s="14">
-        <v>209.2131</v>
+        <v>202.99538186065635</v>
       </c>
       <c r="M36" s="14">
-        <v>223.84379999999999</v>
+        <v>244.23746629557533</v>
       </c>
       <c r="N36" s="14">
-        <v>248.28110000000001</v>
+        <v>234.71885405343184</v>
       </c>
       <c r="O36" s="14">
-        <v>271.18709999999999</v>
+        <v>268.04333340689874</v>
       </c>
       <c r="P36" s="14">
-        <v>282.65260000000001</v>
+        <v>306.45335229830829</v>
       </c>
       <c r="Q36" s="14">
-        <v>293.39100000000002</v>
+        <v>275.01688996971109</v>
       </c>
       <c r="R36" s="14">
-        <v>295.49509999999998</v>
+        <v>289.26957810655165</v>
       </c>
       <c r="S36" s="14">
-        <v>294.57769999999999</v>
+        <v>289.65649203094114</v>
       </c>
       <c r="T36" s="14">
-        <v>290.27640000000002</v>
+        <v>313.54319297668496</v>
       </c>
       <c r="U36" s="14">
-        <v>277.89609999999999</v>
+        <v>286.05483130294016</v>
       </c>
       <c r="V36" s="14">
-        <v>275.5052</v>
+        <v>288.51513208082025</v>
       </c>
       <c r="W36" s="14">
-        <v>275.2022</v>
+        <v>288.83908794988423</v>
       </c>
       <c r="X36" s="14">
-        <v>279.21109999999999</v>
+        <v>299.97857183948781</v>
       </c>
       <c r="Y36" s="14">
-        <v>293.27589999999998</v>
+        <v>271.75355862919173</v>
       </c>
       <c r="Z36" s="14">
-        <v>302.44229999999999</v>
+        <v>291.34525786454617</v>
       </c>
       <c r="AA36" s="14">
-        <v>304.733</v>
+        <v>276.08181367361851</v>
       </c>
       <c r="AB36" s="14">
-        <v>301.96949999999998</v>
+        <v>278.68988978937011</v>
       </c>
       <c r="AC36" s="14">
-        <v>283.22840000000002</v>
+        <v>302.33474674107725</v>
       </c>
       <c r="AD36" s="14">
-        <v>274.2217</v>
+        <v>288.93091620447331</v>
       </c>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.25">
@@ -9774,76 +9787,76 @@
         <v>54</v>
       </c>
       <c r="G37" s="14">
-        <v>360.85989999999998</v>
+        <v>356.96875122473614</v>
       </c>
       <c r="H37" s="14">
-        <v>333.83539999999999</v>
+        <v>334.69284670230144</v>
       </c>
       <c r="I37" s="14">
-        <v>315.20209999999997</v>
+        <v>289.89267854063092</v>
       </c>
       <c r="J37" s="14">
-        <v>304.65929999999997</v>
+        <v>287.63777798078917</v>
       </c>
       <c r="K37" s="14">
-        <v>298.62560000000002</v>
+        <v>283.71948818132176</v>
       </c>
       <c r="L37" s="14">
-        <v>298.8759</v>
+        <v>284.64893616623323</v>
       </c>
       <c r="M37" s="14">
-        <v>319.77690000000001</v>
+        <v>291.42576794011893</v>
       </c>
       <c r="N37" s="14">
-        <v>354.68729999999999</v>
+        <v>378.59516623176074</v>
       </c>
       <c r="O37" s="14">
-        <v>387.4101</v>
+        <v>372.05961011935545</v>
       </c>
       <c r="P37" s="14">
-        <v>403.7894</v>
+        <v>419.28502532318788</v>
       </c>
       <c r="Q37" s="14">
-        <v>419.13</v>
+        <v>386.56040745963463</v>
       </c>
       <c r="R37" s="14">
-        <v>422.13589999999999</v>
+        <v>431.55670228731947</v>
       </c>
       <c r="S37" s="14">
-        <v>420.8252</v>
+        <v>408.15291976026367</v>
       </c>
       <c r="T37" s="14">
-        <v>414.68060000000003</v>
+        <v>451.20464531468798</v>
       </c>
       <c r="U37" s="14">
-        <v>396.99439999999998</v>
+        <v>381.11624906049349</v>
       </c>
       <c r="V37" s="14">
-        <v>393.5788</v>
+        <v>417.38285899308704</v>
       </c>
       <c r="W37" s="14">
-        <v>393.14609999999999</v>
+        <v>359.96827440125628</v>
       </c>
       <c r="X37" s="14">
-        <v>398.87290000000002</v>
+        <v>389.79816489985279</v>
       </c>
       <c r="Y37" s="14">
-        <v>418.96550000000002</v>
+        <v>433.88258195545649</v>
       </c>
       <c r="Z37" s="14">
-        <v>432.06040000000002</v>
+        <v>399.66246250756245</v>
       </c>
       <c r="AA37" s="14">
-        <v>435.33280000000002</v>
+        <v>437.89890536435473</v>
       </c>
       <c r="AB37" s="14">
-        <v>431.38499999999999</v>
+        <v>463.14969816531442</v>
       </c>
       <c r="AC37" s="14">
-        <v>404.61200000000002</v>
+        <v>378.45716974625566</v>
       </c>
       <c r="AD37" s="14">
-        <v>391.74529999999999</v>
+        <v>361.13260519765146</v>
       </c>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
@@ -9861,76 +9874,76 @@
         <v>54</v>
       </c>
       <c r="G38" s="14">
-        <v>721.71969999999999</v>
+        <v>732.48685913410282</v>
       </c>
       <c r="H38" s="14">
-        <v>667.67070000000001</v>
+        <v>633.65555660665768</v>
       </c>
       <c r="I38" s="14">
-        <v>630.40419999999995</v>
+        <v>648.98190483299732</v>
       </c>
       <c r="J38" s="14">
-        <v>609.31859999999995</v>
+        <v>600.53746103209892</v>
       </c>
       <c r="K38" s="14">
-        <v>597.25109999999995</v>
+        <v>603.07438137580903</v>
       </c>
       <c r="L38" s="14">
-        <v>597.75170000000003</v>
+        <v>555.48835641072594</v>
       </c>
       <c r="M38" s="14">
-        <v>639.55380000000002</v>
+        <v>602.35767214016676</v>
       </c>
       <c r="N38" s="14">
-        <v>709.37450000000001</v>
+        <v>733.75338362346588</v>
       </c>
       <c r="O38" s="14">
-        <v>774.8202</v>
+        <v>714.59256293196063</v>
       </c>
       <c r="P38" s="14">
-        <v>807.57889999999998</v>
+        <v>855.85516247001806</v>
       </c>
       <c r="Q38" s="14">
-        <v>838.26009999999997</v>
+        <v>798.53570912196415</v>
       </c>
       <c r="R38" s="14">
-        <v>844.27170000000001</v>
+        <v>888.56597560498369</v>
       </c>
       <c r="S38" s="14">
-        <v>841.65049999999997</v>
+        <v>781.61347528881311</v>
       </c>
       <c r="T38" s="14">
-        <v>829.36109999999996</v>
+        <v>897.55974118701135</v>
       </c>
       <c r="U38" s="14">
-        <v>793.98889999999994</v>
+        <v>849.89620539408315</v>
       </c>
       <c r="V38" s="14">
-        <v>787.1576</v>
+        <v>800.36405877131654</v>
       </c>
       <c r="W38" s="14">
-        <v>786.2921</v>
+        <v>822.57422241307631</v>
       </c>
       <c r="X38" s="14">
-        <v>797.74590000000001</v>
+        <v>793.66953049809035</v>
       </c>
       <c r="Y38" s="14">
-        <v>837.93100000000004</v>
+        <v>762.7111421087576</v>
       </c>
       <c r="Z38" s="14">
-        <v>864.12070000000006</v>
+        <v>875.37405818959098</v>
       </c>
       <c r="AA38" s="14">
-        <v>870.66570000000002</v>
+        <v>840.16283503069167</v>
       </c>
       <c r="AB38" s="14">
-        <v>862.77</v>
+        <v>925.45225906924725</v>
       </c>
       <c r="AC38" s="14">
-        <v>809.22410000000002</v>
+        <v>814.01432597038036</v>
       </c>
       <c r="AD38" s="14">
-        <v>783.49059999999997</v>
+        <v>853.93760985165682</v>
       </c>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.25">
@@ -9948,76 +9961,76 @@
         <v>54</v>
       </c>
       <c r="G39" s="14">
-        <v>180.4299</v>
+        <v>181.92503384210772</v>
       </c>
       <c r="H39" s="14">
-        <v>166.9177</v>
+        <v>172.39794982868705</v>
       </c>
       <c r="I39" s="14">
-        <v>157.601</v>
+        <v>156.9020885406959</v>
       </c>
       <c r="J39" s="14">
-        <v>152.3297</v>
+        <v>157.74784179539154</v>
       </c>
       <c r="K39" s="14">
-        <v>149.31280000000001</v>
+        <v>151.4618507905935</v>
       </c>
       <c r="L39" s="14">
-        <v>149.43790000000001</v>
+        <v>159.89208807813077</v>
       </c>
       <c r="M39" s="14">
-        <v>159.88839999999999</v>
+        <v>144.44078071853548</v>
       </c>
       <c r="N39" s="14">
-        <v>177.34360000000001</v>
+        <v>185.27389010223956</v>
       </c>
       <c r="O39" s="14">
-        <v>193.70500000000001</v>
+        <v>183.85705203586588</v>
       </c>
       <c r="P39" s="14">
-        <v>201.8947</v>
+        <v>208.87172221455191</v>
       </c>
       <c r="Q39" s="14">
-        <v>209.565</v>
+        <v>229.53046362867465</v>
       </c>
       <c r="R39" s="14">
-        <v>211.06790000000001</v>
+        <v>231.40656940052625</v>
       </c>
       <c r="S39" s="14">
-        <v>210.4126</v>
+        <v>213.25887365729449</v>
       </c>
       <c r="T39" s="14">
-        <v>207.34030000000001</v>
+        <v>217.58390387784425</v>
       </c>
       <c r="U39" s="14">
-        <v>198.49719999999999</v>
+        <v>186.5042647650869</v>
       </c>
       <c r="V39" s="14">
-        <v>196.7894</v>
+        <v>197.6228497611929</v>
       </c>
       <c r="W39" s="14">
-        <v>196.57300000000001</v>
+        <v>193.79899262986424</v>
       </c>
       <c r="X39" s="14">
-        <v>199.4365</v>
+        <v>191.52025303573754</v>
       </c>
       <c r="Y39" s="14">
-        <v>209.4828</v>
+        <v>221.16415354549687</v>
       </c>
       <c r="Z39" s="14">
-        <v>216.03020000000001</v>
+        <v>229.00662735402844</v>
       </c>
       <c r="AA39" s="14">
-        <v>217.66640000000001</v>
+        <v>207.82167906898957</v>
       </c>
       <c r="AB39" s="14">
-        <v>215.6925</v>
+        <v>200.91791099873888</v>
       </c>
       <c r="AC39" s="14">
-        <v>202.30600000000001</v>
+        <v>210.03995474826402</v>
       </c>
       <c r="AD39" s="14">
-        <v>195.87270000000001</v>
+        <v>177.79750139679544</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
@@ -10035,76 +10048,76 @@
         <v>54</v>
       </c>
       <c r="G40" s="14">
-        <v>902.14970000000005</v>
+        <v>920.13171560027627</v>
       </c>
       <c r="H40" s="14">
-        <v>834.58839999999998</v>
+        <v>809.86797313389854</v>
       </c>
       <c r="I40" s="14">
-        <v>788.00519999999995</v>
+        <v>842.47703167981047</v>
       </c>
       <c r="J40" s="14">
-        <v>761.64829999999995</v>
+        <v>835.06953958499003</v>
       </c>
       <c r="K40" s="14">
-        <v>746.56389999999999</v>
+        <v>774.83927873432754</v>
       </c>
       <c r="L40" s="14">
-        <v>747.18970000000002</v>
+        <v>819.63507822329927</v>
       </c>
       <c r="M40" s="14">
-        <v>799.44219999999996</v>
+        <v>878.12627511611845</v>
       </c>
       <c r="N40" s="14">
-        <v>886.71810000000005</v>
+        <v>819.81200548909715</v>
       </c>
       <c r="O40" s="14">
-        <v>968.52520000000004</v>
+        <v>936.72997390698492</v>
       </c>
       <c r="P40" s="14">
-        <v>1009.4736</v>
+        <v>1061.8982650138314</v>
       </c>
       <c r="Q40" s="14">
-        <v>1047.8251</v>
+        <v>1079.6843429119831</v>
       </c>
       <c r="R40" s="14">
-        <v>1055.3396</v>
+        <v>1109.4361678867197</v>
       </c>
       <c r="S40" s="14">
-        <v>1052.0631000000001</v>
+        <v>982.64815405840181</v>
       </c>
       <c r="T40" s="14">
-        <v>1036.7013999999999</v>
+        <v>1002.6852863865093</v>
       </c>
       <c r="U40" s="14">
-        <v>992.48609999999996</v>
+        <v>956.8050794997306</v>
       </c>
       <c r="V40" s="14">
-        <v>983.947</v>
+        <v>897.78087496975104</v>
       </c>
       <c r="W40" s="14">
-        <v>982.86519999999996</v>
+        <v>1074.3985096689987</v>
       </c>
       <c r="X40" s="14">
-        <v>997.18230000000005</v>
+        <v>1046.6024512784727</v>
       </c>
       <c r="Y40" s="14">
-        <v>1047.4138</v>
+        <v>1137.7237314057995</v>
       </c>
       <c r="Z40" s="14">
-        <v>1080.1509000000001</v>
+        <v>1060.5673540421601</v>
       </c>
       <c r="AA40" s="14">
-        <v>1088.3321000000001</v>
+        <v>1005.2692654697231</v>
       </c>
       <c r="AB40" s="14">
-        <v>1078.4625000000001</v>
+        <v>999.18230543377808</v>
       </c>
       <c r="AC40" s="14">
-        <v>1011.5300999999999</v>
+        <v>1085.6367052160872</v>
       </c>
       <c r="AD40" s="14">
-        <v>979.36329999999998</v>
+        <v>1064.3206512170946</v>
       </c>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
@@ -10122,76 +10135,76 @@
         <v>54</v>
       </c>
       <c r="G41" s="14">
-        <v>288.68790000000001</v>
+        <v>304.16561025534492</v>
       </c>
       <c r="H41" s="14">
-        <v>267.06830000000002</v>
+        <v>291.4714975320602</v>
       </c>
       <c r="I41" s="14">
-        <v>252.1617</v>
+        <v>270.47657454085862</v>
       </c>
       <c r="J41" s="14">
-        <v>243.72739999999999</v>
+        <v>228.49558651102407</v>
       </c>
       <c r="K41" s="14">
-        <v>238.90039999999999</v>
+        <v>254.38117510948356</v>
       </c>
       <c r="L41" s="14">
-        <v>239.10069999999999</v>
+        <v>222.35801132882824</v>
       </c>
       <c r="M41" s="14">
-        <v>255.82149999999999</v>
+        <v>269.78387057570001</v>
       </c>
       <c r="N41" s="14">
-        <v>283.74979999999999</v>
+        <v>275.98941044411902</v>
       </c>
       <c r="O41" s="14">
-        <v>309.92809999999997</v>
+        <v>328.6892268274886</v>
       </c>
       <c r="P41" s="14">
-        <v>323.03160000000003</v>
+        <v>316.80652633080211</v>
       </c>
       <c r="Q41" s="14">
-        <v>335.30399999999997</v>
+        <v>347.47508946075851</v>
       </c>
       <c r="R41" s="14">
-        <v>337.70870000000002</v>
+        <v>361.2877534818399</v>
       </c>
       <c r="S41" s="14">
-        <v>336.66019999999997</v>
+        <v>357.20870759245469</v>
       </c>
       <c r="T41" s="14">
-        <v>331.74439999999998</v>
+        <v>351.36187865911501</v>
       </c>
       <c r="U41" s="14">
-        <v>317.59550000000002</v>
+        <v>322.82017432644699</v>
       </c>
       <c r="V41" s="14">
-        <v>314.863</v>
+        <v>315.36162784571934</v>
       </c>
       <c r="W41" s="14">
-        <v>314.51679999999999</v>
+        <v>329.54265730430745</v>
       </c>
       <c r="X41" s="14">
-        <v>319.09840000000003</v>
+        <v>337.85767671918126</v>
       </c>
       <c r="Y41" s="14">
-        <v>335.17239999999998</v>
+        <v>356.9345071354449</v>
       </c>
       <c r="Z41" s="14">
-        <v>345.64830000000001</v>
+        <v>340.11400469263396</v>
       </c>
       <c r="AA41" s="14">
-        <v>348.2663</v>
+        <v>328.58517693720222</v>
       </c>
       <c r="AB41" s="14">
-        <v>345.108</v>
+        <v>314.36138856646244</v>
       </c>
       <c r="AC41" s="14">
-        <v>323.68959999999998</v>
+        <v>343.15622175272415</v>
       </c>
       <c r="AD41" s="14">
-        <v>313.39620000000002</v>
+        <v>341.17254129602424</v>
       </c>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
@@ -10209,76 +10222,76 @@
         <v>54</v>
       </c>
       <c r="G42" s="14">
-        <v>180.4299</v>
+        <v>177.18002609124775</v>
       </c>
       <c r="H42" s="14">
-        <v>166.9177</v>
+        <v>155.26789515863874</v>
       </c>
       <c r="I42" s="14">
-        <v>157.601</v>
+        <v>147.46404274400118</v>
       </c>
       <c r="J42" s="14">
-        <v>152.3297</v>
+        <v>156.12285972684055</v>
       </c>
       <c r="K42" s="14">
-        <v>149.31280000000001</v>
+        <v>157.34600075430328</v>
       </c>
       <c r="L42" s="14">
-        <v>149.43790000000001</v>
+        <v>155.53446864907437</v>
       </c>
       <c r="M42" s="14">
-        <v>159.88839999999999</v>
+        <v>159.80567754836014</v>
       </c>
       <c r="N42" s="14">
-        <v>177.34360000000001</v>
+        <v>170.06066954260203</v>
       </c>
       <c r="O42" s="14">
-        <v>193.70500000000001</v>
+        <v>207.82710650506002</v>
       </c>
       <c r="P42" s="14">
-        <v>201.8947</v>
+        <v>194.58173526879511</v>
       </c>
       <c r="Q42" s="14">
-        <v>209.565</v>
+        <v>226.0328459451994</v>
       </c>
       <c r="R42" s="14">
-        <v>211.06790000000001</v>
+        <v>209.79110523011923</v>
       </c>
       <c r="S42" s="14">
-        <v>210.4126</v>
+        <v>192.52187416080929</v>
       </c>
       <c r="T42" s="14">
-        <v>207.34030000000001</v>
+        <v>228.03982536561094</v>
       </c>
       <c r="U42" s="14">
-        <v>198.49719999999999</v>
+        <v>216.75014509239404</v>
       </c>
       <c r="V42" s="14">
-        <v>196.7894</v>
+        <v>187.32265907952126</v>
       </c>
       <c r="W42" s="14">
-        <v>196.57300000000001</v>
+        <v>193.6836139383195</v>
       </c>
       <c r="X42" s="14">
-        <v>199.4365</v>
+        <v>189.6753434407253</v>
       </c>
       <c r="Y42" s="14">
-        <v>209.4828</v>
+        <v>201.14380151504182</v>
       </c>
       <c r="Z42" s="14">
-        <v>216.03020000000001</v>
+        <v>226.14974692407301</v>
       </c>
       <c r="AA42" s="14">
-        <v>217.66640000000001</v>
+        <v>221.69481597079735</v>
       </c>
       <c r="AB42" s="14">
-        <v>215.6925</v>
+        <v>221.37789493895414</v>
       </c>
       <c r="AC42" s="14">
-        <v>202.30600000000001</v>
+        <v>186.23985479489374</v>
       </c>
       <c r="AD42" s="14">
-        <v>195.87270000000001</v>
+        <v>211.77991152708145</v>
       </c>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
@@ -10296,76 +10309,76 @@
         <v>54</v>
       </c>
       <c r="G43" s="14">
-        <v>180.4299</v>
+        <v>194.2701394650239</v>
       </c>
       <c r="H43" s="14">
-        <v>166.9177</v>
+        <v>177.84620703694247</v>
       </c>
       <c r="I43" s="14">
-        <v>157.601</v>
+        <v>171.47923222756043</v>
       </c>
       <c r="J43" s="14">
-        <v>152.3297</v>
+        <v>144.8871568101776</v>
       </c>
       <c r="K43" s="14">
-        <v>149.31280000000001</v>
+        <v>149.46232947178302</v>
       </c>
       <c r="L43" s="14">
-        <v>149.43790000000001</v>
+        <v>149.34178308175439</v>
       </c>
       <c r="M43" s="14">
-        <v>159.88839999999999</v>
+        <v>149.37505730240809</v>
       </c>
       <c r="N43" s="14">
-        <v>177.34360000000001</v>
+        <v>166.83609350887991</v>
       </c>
       <c r="O43" s="14">
-        <v>193.70500000000001</v>
+        <v>205.72378687557838</v>
       </c>
       <c r="P43" s="14">
-        <v>201.8947</v>
+        <v>184.8123561366171</v>
       </c>
       <c r="Q43" s="14">
-        <v>209.565</v>
+        <v>210.90845364405993</v>
       </c>
       <c r="R43" s="14">
-        <v>211.06790000000001</v>
+        <v>201.5818998076854</v>
       </c>
       <c r="S43" s="14">
-        <v>210.4126</v>
+        <v>217.08031530680179</v>
       </c>
       <c r="T43" s="14">
-        <v>207.34030000000001</v>
+        <v>225.18501102433459</v>
       </c>
       <c r="U43" s="14">
-        <v>198.49719999999999</v>
+        <v>211.00413731007373</v>
       </c>
       <c r="V43" s="14">
-        <v>196.7894</v>
+        <v>181.69133679220118</v>
       </c>
       <c r="W43" s="14">
-        <v>196.57300000000001</v>
+        <v>207.41219897428218</v>
       </c>
       <c r="X43" s="14">
-        <v>199.4365</v>
+        <v>186.32499720838996</v>
       </c>
       <c r="Y43" s="14">
-        <v>209.4828</v>
+        <v>225.2796500754032</v>
       </c>
       <c r="Z43" s="14">
-        <v>216.03020000000001</v>
+        <v>211.14242134371315</v>
       </c>
       <c r="AA43" s="14">
-        <v>217.66640000000001</v>
+        <v>235.92235819684285</v>
       </c>
       <c r="AB43" s="14">
-        <v>215.6925</v>
+        <v>215.51441644246393</v>
       </c>
       <c r="AC43" s="14">
-        <v>202.30600000000001</v>
+        <v>192.95277055745561</v>
       </c>
       <c r="AD43" s="14">
-        <v>195.87270000000001</v>
+        <v>191.4406583466459</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
@@ -10383,76 +10396,76 @@
         <v>54</v>
       </c>
       <c r="G44" s="14">
-        <v>482.32089999999999</v>
+        <v>466.17587803007734</v>
       </c>
       <c r="H44" s="14">
-        <v>449.69389999999999</v>
+        <v>475.35458397843507</v>
       </c>
       <c r="I44" s="14">
-        <v>428.24709999999999</v>
+        <v>396.49944598947457</v>
       </c>
       <c r="J44" s="14">
-        <v>417.72949999999997</v>
+        <v>383.11759038952499</v>
       </c>
       <c r="K44" s="14">
-        <v>413.41899999999998</v>
+        <v>433.65343554986777</v>
       </c>
       <c r="L44" s="14">
-        <v>415.60329999999999</v>
+        <v>404.05518310393978</v>
       </c>
       <c r="M44" s="14">
-        <v>440.08839999999998</v>
+        <v>466.91711241017839</v>
       </c>
       <c r="N44" s="14">
-        <v>477.24669999999998</v>
+        <v>493.34552824007005</v>
       </c>
       <c r="O44" s="14">
-        <v>517.90139999999997</v>
+        <v>510.35478193803016</v>
       </c>
       <c r="P44" s="14">
-        <v>545.88170000000002</v>
+        <v>557.72311550116376</v>
       </c>
       <c r="Q44" s="14">
-        <v>571.08939999999996</v>
+        <v>540.90286464279222</v>
       </c>
       <c r="R44" s="14">
-        <v>583.84</v>
+        <v>526.47612081864258</v>
       </c>
       <c r="S44" s="14">
-        <v>591.71069999999997</v>
+        <v>641.2690289604285</v>
       </c>
       <c r="T44" s="14">
-        <v>591.40380000000005</v>
+        <v>609.79123647256426</v>
       </c>
       <c r="U44" s="14">
-        <v>571.35239999999999</v>
+        <v>553.07197009783022</v>
       </c>
       <c r="V44" s="14">
-        <v>564.33299999999997</v>
+        <v>604.32313385706652</v>
       </c>
       <c r="W44" s="14">
-        <v>564.3347</v>
+        <v>581.48858475700445</v>
       </c>
       <c r="X44" s="14">
-        <v>568.29089999999997</v>
+        <v>568.43533839045915</v>
       </c>
       <c r="Y44" s="14">
-        <v>566.24429999999995</v>
+        <v>574.19941674481595</v>
       </c>
       <c r="Z44" s="14">
-        <v>563.54229999999995</v>
+        <v>611.78504145810734</v>
       </c>
       <c r="AA44" s="14">
-        <v>572.09379999999999</v>
+        <v>520.90777244600781</v>
       </c>
       <c r="AB44" s="14">
-        <v>582.65309999999999</v>
+        <v>635.00112046370782</v>
       </c>
       <c r="AC44" s="14">
-        <v>564.20150000000001</v>
+        <v>607.85585634012807</v>
       </c>
       <c r="AD44" s="14">
-        <v>523.58810000000005</v>
+        <v>494.43624644444628</v>
       </c>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
@@ -10470,76 +10483,76 @@
         <v>62</v>
       </c>
       <c r="G45" s="14">
-        <v>225.0831</v>
+        <v>217.8680311035242</v>
       </c>
       <c r="H45" s="14">
-        <v>209.85720000000001</v>
+        <v>224.83005399467569</v>
       </c>
       <c r="I45" s="14">
-        <v>199.8486</v>
+        <v>218.66624669337816</v>
       </c>
       <c r="J45" s="14">
-        <v>194.94040000000001</v>
+        <v>202.83623378511984</v>
       </c>
       <c r="K45" s="14">
-        <v>192.9289</v>
+        <v>179.34450512621365</v>
       </c>
       <c r="L45" s="14">
-        <v>193.94820000000001</v>
+        <v>193.9028553394395</v>
       </c>
       <c r="M45" s="14">
-        <v>205.37459999999999</v>
+        <v>211.19140569506112</v>
       </c>
       <c r="N45" s="14">
-        <v>222.71510000000001</v>
+        <v>218.26776304733852</v>
       </c>
       <c r="O45" s="14">
-        <v>241.68729999999999</v>
+        <v>234.15112985536982</v>
       </c>
       <c r="P45" s="14">
-        <v>254.7448</v>
+        <v>243.58701545218213</v>
       </c>
       <c r="Q45" s="14">
-        <v>266.50839999999999</v>
+        <v>261.6154352627164</v>
       </c>
       <c r="R45" s="14">
-        <v>272.45870000000002</v>
+        <v>260.37476927632287</v>
       </c>
       <c r="S45" s="14">
-        <v>276.13170000000002</v>
+        <v>290.57704304970309</v>
       </c>
       <c r="T45" s="14">
-        <v>275.98840000000001</v>
+        <v>291.3741230003377</v>
       </c>
       <c r="U45" s="14">
-        <v>266.6311</v>
+        <v>271.10309379780313</v>
       </c>
       <c r="V45" s="14">
-        <v>263.35539999999997</v>
+        <v>252.69999997017848</v>
       </c>
       <c r="W45" s="14">
-        <v>263.3562</v>
+        <v>276.95788792601888</v>
       </c>
       <c r="X45" s="14">
-        <v>265.20240000000001</v>
+        <v>261.85695719816295</v>
       </c>
       <c r="Y45" s="14">
-        <v>264.2473</v>
+        <v>242.24108196938002</v>
       </c>
       <c r="Z45" s="14">
-        <v>262.9864</v>
+        <v>259.7016777805095</v>
       </c>
       <c r="AA45" s="14">
-        <v>266.97710000000001</v>
+        <v>284.85010906737347</v>
       </c>
       <c r="AB45" s="14">
-        <v>271.90480000000002</v>
+        <v>279.74946116105895</v>
       </c>
       <c r="AC45" s="14">
-        <v>263.29399999999998</v>
+        <v>253.65870165944514</v>
       </c>
       <c r="AD45" s="14">
-        <v>244.34110000000001</v>
+        <v>265.77562177626015</v>
       </c>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.25">
@@ -10557,76 +10570,76 @@
         <v>62</v>
       </c>
       <c r="G46" s="14">
-        <v>321.54719999999998</v>
+        <v>316.41184997483987</v>
       </c>
       <c r="H46" s="14">
-        <v>299.79599999999999</v>
+        <v>276.68269119635414</v>
       </c>
       <c r="I46" s="14">
-        <v>285.49810000000002</v>
+        <v>290.06703766178066</v>
       </c>
       <c r="J46" s="14">
-        <v>278.48630000000003</v>
+        <v>254.17619146352379</v>
       </c>
       <c r="K46" s="14">
-        <v>275.61270000000002</v>
+        <v>297.51832611999833</v>
       </c>
       <c r="L46" s="14">
-        <v>277.06880000000001</v>
+        <v>265.03778253419483</v>
       </c>
       <c r="M46" s="14">
-        <v>293.39229999999998</v>
+        <v>311.58784720597117</v>
       </c>
       <c r="N46" s="14">
-        <v>318.16449999999998</v>
+        <v>328.307773054047</v>
       </c>
       <c r="O46" s="14">
-        <v>345.26760000000002</v>
+        <v>328.08425761128075</v>
       </c>
       <c r="P46" s="14">
-        <v>363.92110000000002</v>
+        <v>387.36810136233714</v>
       </c>
       <c r="Q46" s="14">
-        <v>380.72629999999998</v>
+        <v>392.56176610537227</v>
       </c>
       <c r="R46" s="14">
-        <v>389.22669999999999</v>
+        <v>419.43389942053102</v>
       </c>
       <c r="S46" s="14">
-        <v>394.47379999999998</v>
+        <v>388.97669732430268</v>
       </c>
       <c r="T46" s="14">
-        <v>394.26920000000001</v>
+        <v>409.8409904118551</v>
       </c>
       <c r="U46" s="14">
-        <v>380.90159999999997</v>
+        <v>370.50771401228519</v>
       </c>
       <c r="V46" s="14">
-        <v>376.22199999999998</v>
+        <v>364.24452244798204</v>
       </c>
       <c r="W46" s="14">
-        <v>376.22309999999999</v>
+        <v>403.65687195911465</v>
       </c>
       <c r="X46" s="14">
-        <v>378.86059999999998</v>
+        <v>398.87595605261015</v>
       </c>
       <c r="Y46" s="14">
-        <v>377.49619999999999</v>
+        <v>413.71664612158082</v>
       </c>
       <c r="Z46" s="14">
-        <v>375.69490000000002</v>
+        <v>389.64627344530317</v>
       </c>
       <c r="AA46" s="14">
-        <v>381.39589999999998</v>
+        <v>397.89329757934939</v>
       </c>
       <c r="AB46" s="14">
-        <v>388.43540000000002</v>
+        <v>407.88120980751103</v>
       </c>
       <c r="AC46" s="14">
-        <v>376.1343</v>
+        <v>359.59701584329281</v>
       </c>
       <c r="AD46" s="14">
-        <v>349.05880000000002</v>
+        <v>341.86536870695517</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
@@ -10644,76 +10657,76 @@
         <v>54</v>
       </c>
       <c r="G47" s="14">
-        <v>643.09450000000004</v>
+        <v>620.1426065089953</v>
       </c>
       <c r="H47" s="14">
-        <v>599.59190000000001</v>
+        <v>595.60776718225577</v>
       </c>
       <c r="I47" s="14">
-        <v>570.99609999999996</v>
+        <v>523.90640944913923</v>
       </c>
       <c r="J47" s="14">
-        <v>556.97270000000003</v>
+        <v>548.38505532271097</v>
       </c>
       <c r="K47" s="14">
-        <v>551.22540000000004</v>
+        <v>561.8676060453015</v>
       </c>
       <c r="L47" s="14">
-        <v>554.1377</v>
+        <v>508.16884804729955</v>
       </c>
       <c r="M47" s="14">
-        <v>586.78459999999995</v>
+        <v>637.63503813576835</v>
       </c>
       <c r="N47" s="14">
-        <v>636.32889999999998</v>
+        <v>656.38919844525356</v>
       </c>
       <c r="O47" s="14">
-        <v>690.53520000000003</v>
+        <v>697.1943910882477</v>
       </c>
       <c r="P47" s="14">
-        <v>727.84230000000002</v>
+        <v>727.53602279852589</v>
       </c>
       <c r="Q47" s="14">
-        <v>761.45249999999999</v>
+        <v>796.35883937928327</v>
       </c>
       <c r="R47" s="14">
-        <v>778.45339999999999</v>
+        <v>754.72913356848619</v>
       </c>
       <c r="S47" s="14">
-        <v>788.94759999999997</v>
+        <v>762.86451361570585</v>
       </c>
       <c r="T47" s="14">
-        <v>788.53840000000002</v>
+        <v>744.74678667100534</v>
       </c>
       <c r="U47" s="14">
-        <v>761.80319999999995</v>
+        <v>827.2649974935249</v>
       </c>
       <c r="V47" s="14">
-        <v>752.44399999999996</v>
+        <v>760.26526351625887</v>
       </c>
       <c r="W47" s="14">
-        <v>752.44629999999995</v>
+        <v>803.64680108526773</v>
       </c>
       <c r="X47" s="14">
-        <v>757.72119999999995</v>
+        <v>828.26477388339435</v>
       </c>
       <c r="Y47" s="14">
-        <v>754.99239999999998</v>
+        <v>705.91891402056149</v>
       </c>
       <c r="Z47" s="14">
-        <v>751.38969999999995</v>
+        <v>681.44476386245719</v>
       </c>
       <c r="AA47" s="14">
-        <v>762.79169999999999</v>
+        <v>720.05259663716038</v>
       </c>
       <c r="AB47" s="14">
-        <v>776.87080000000003</v>
+        <v>823.66840127270575</v>
       </c>
       <c r="AC47" s="14">
-        <v>752.26859999999999</v>
+        <v>756.63146047024179</v>
       </c>
       <c r="AD47" s="14">
-        <v>698.11749999999995</v>
+        <v>710.63482118406705</v>
       </c>
     </row>
     <row r="48" spans="2:30" x14ac:dyDescent="0.25">
@@ -10731,76 +10744,76 @@
         <v>54</v>
       </c>
       <c r="G48" s="14">
-        <v>160.77359999999999</v>
+        <v>163.06611213028398</v>
       </c>
       <c r="H48" s="14">
-        <v>149.898</v>
+        <v>161.78280298899637</v>
       </c>
       <c r="I48" s="14">
-        <v>142.749</v>
+        <v>147.81577573975201</v>
       </c>
       <c r="J48" s="14">
-        <v>139.2432</v>
+        <v>142.38641057265508</v>
       </c>
       <c r="K48" s="14">
-        <v>137.80629999999999</v>
+        <v>126.89068279446322</v>
       </c>
       <c r="L48" s="14">
-        <v>138.53440000000001</v>
+        <v>129.36857576082824</v>
       </c>
       <c r="M48" s="14">
-        <v>146.6961</v>
+        <v>146.24749786025134</v>
       </c>
       <c r="N48" s="14">
-        <v>159.0822</v>
+        <v>155.23721962307991</v>
       </c>
       <c r="O48" s="14">
-        <v>172.63380000000001</v>
+        <v>159.56642326026582</v>
       </c>
       <c r="P48" s="14">
-        <v>181.9606</v>
+        <v>169.0508697439989</v>
       </c>
       <c r="Q48" s="14">
-        <v>190.3631</v>
+        <v>185.38262196340892</v>
       </c>
       <c r="R48" s="14">
-        <v>194.61330000000001</v>
+        <v>196.88998399422383</v>
       </c>
       <c r="S48" s="14">
-        <v>197.23689999999999</v>
+        <v>202.44693219674102</v>
       </c>
       <c r="T48" s="14">
-        <v>197.13460000000001</v>
+        <v>214.89926971911041</v>
       </c>
       <c r="U48" s="14">
-        <v>190.45079999999999</v>
+        <v>202.7396349666505</v>
       </c>
       <c r="V48" s="14">
-        <v>188.11099999999999</v>
+        <v>172.47451869820344</v>
       </c>
       <c r="W48" s="14">
-        <v>188.11160000000001</v>
+        <v>188.9427111693183</v>
       </c>
       <c r="X48" s="14">
-        <v>189.43029999999999</v>
+        <v>193.35588887870793</v>
       </c>
       <c r="Y48" s="14">
-        <v>188.74809999999999</v>
+        <v>193.56515652293899</v>
       </c>
       <c r="Z48" s="14">
-        <v>187.84739999999999</v>
+        <v>186.72580663198818</v>
       </c>
       <c r="AA48" s="14">
-        <v>190.6979</v>
+        <v>205.83817746429781</v>
       </c>
       <c r="AB48" s="14">
-        <v>194.21770000000001</v>
+        <v>212.68018806493802</v>
       </c>
       <c r="AC48" s="14">
-        <v>188.06720000000001</v>
+        <v>173.67162675360626</v>
       </c>
       <c r="AD48" s="14">
-        <v>174.52940000000001</v>
+        <v>177.88577580337335</v>
       </c>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.25">
@@ -10818,76 +10831,76 @@
         <v>54</v>
       </c>
       <c r="G49" s="14">
-        <v>803.86810000000003</v>
+        <v>841.9115132972363</v>
       </c>
       <c r="H49" s="14">
-        <v>749.48990000000003</v>
+        <v>734.80538856048679</v>
       </c>
       <c r="I49" s="14">
-        <v>713.74519999999995</v>
+        <v>768.28344956386115</v>
       </c>
       <c r="J49" s="14">
-        <v>696.21590000000003</v>
+        <v>628.02666488495947</v>
       </c>
       <c r="K49" s="14">
-        <v>689.0317</v>
+        <v>683.95945112573884</v>
       </c>
       <c r="L49" s="14">
-        <v>692.6721</v>
+        <v>651.72923240325372</v>
       </c>
       <c r="M49" s="14">
-        <v>733.48069999999996</v>
+        <v>799.68603739990044</v>
       </c>
       <c r="N49" s="14">
-        <v>795.41120000000001</v>
+        <v>768.21134087326766</v>
       </c>
       <c r="O49" s="14">
-        <v>863.16890000000001</v>
+        <v>903.82181881463998</v>
       </c>
       <c r="P49" s="14">
-        <v>909.80290000000002</v>
+        <v>950.9320104306878</v>
       </c>
       <c r="Q49" s="14">
-        <v>951.81560000000002</v>
+        <v>928.74371673548569</v>
       </c>
       <c r="R49" s="14">
-        <v>973.06669999999997</v>
+        <v>1039.911816131807</v>
       </c>
       <c r="S49" s="14">
-        <v>986.18449999999996</v>
+        <v>1075.56482538454</v>
       </c>
       <c r="T49" s="14">
-        <v>985.673</v>
+        <v>1060.1304784882336</v>
       </c>
       <c r="U49" s="14">
-        <v>952.25400000000002</v>
+        <v>912.27289046873852</v>
       </c>
       <c r="V49" s="14">
-        <v>940.55499999999995</v>
+        <v>974.18736297363466</v>
       </c>
       <c r="W49" s="14">
-        <v>940.55790000000002</v>
+        <v>865.71806136818964</v>
       </c>
       <c r="X49" s="14">
-        <v>947.15150000000006</v>
+        <v>1008.3861283672225</v>
       </c>
       <c r="Y49" s="14">
-        <v>943.7405</v>
+        <v>1017.7567740822293</v>
       </c>
       <c r="Z49" s="14">
-        <v>939.23720000000003</v>
+        <v>1023.3020354860236</v>
       </c>
       <c r="AA49" s="14">
-        <v>953.4896</v>
+        <v>920.83575789211579</v>
       </c>
       <c r="AB49" s="14">
-        <v>971.08849999999995</v>
+        <v>1005.9101795620462</v>
       </c>
       <c r="AC49" s="14">
-        <v>940.33579999999995</v>
+        <v>1028.4262312003157</v>
       </c>
       <c r="AD49" s="14">
-        <v>872.64689999999996</v>
+        <v>793.02833043334954</v>
       </c>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.25">
@@ -10905,76 +10918,76 @@
         <v>54</v>
       </c>
       <c r="G50" s="14">
-        <v>257.23779999999999</v>
+        <v>270.09273226527938</v>
       </c>
       <c r="H50" s="14">
-        <v>239.83680000000001</v>
+        <v>252.98959370518705</v>
       </c>
       <c r="I50" s="14">
-        <v>228.39850000000001</v>
+        <v>228.33135200470414</v>
       </c>
       <c r="J50" s="14">
-        <v>222.78909999999999</v>
+        <v>237.89756608263892</v>
       </c>
       <c r="K50" s="14">
-        <v>220.49010000000001</v>
+        <v>198.73893837080132</v>
       </c>
       <c r="L50" s="14">
-        <v>221.6551</v>
+        <v>236.72141652261814</v>
       </c>
       <c r="M50" s="14">
-        <v>234.71379999999999</v>
+        <v>212.01257829288758</v>
       </c>
       <c r="N50" s="14">
-        <v>254.5316</v>
+        <v>238.53807437398964</v>
       </c>
       <c r="O50" s="14">
-        <v>276.21409999999997</v>
+        <v>284.4185151419295</v>
       </c>
       <c r="P50" s="14">
-        <v>291.13690000000003</v>
+        <v>299.26597524769431</v>
       </c>
       <c r="Q50" s="14">
-        <v>304.58100000000002</v>
+        <v>317.46132730728101</v>
       </c>
       <c r="R50" s="14">
-        <v>311.38139999999999</v>
+        <v>330.9027993994539</v>
       </c>
       <c r="S50" s="14">
-        <v>315.57900000000001</v>
+        <v>321.57159355812928</v>
       </c>
       <c r="T50" s="14">
-        <v>315.41539999999998</v>
+        <v>317.35797337895781</v>
       </c>
       <c r="U50" s="14">
-        <v>304.72129999999999</v>
+        <v>281.81812818026049</v>
       </c>
       <c r="V50" s="14">
-        <v>300.9776</v>
+        <v>304.43067703802046</v>
       </c>
       <c r="W50" s="14">
-        <v>300.9785</v>
+        <v>303.37532206285141</v>
       </c>
       <c r="X50" s="14">
-        <v>303.08850000000001</v>
+        <v>319.7287203997638</v>
       </c>
       <c r="Y50" s="14">
-        <v>301.99700000000001</v>
+        <v>325.73875913476371</v>
       </c>
       <c r="Z50" s="14">
-        <v>300.55590000000001</v>
+        <v>298.13944911848176</v>
       </c>
       <c r="AA50" s="14">
-        <v>305.11669999999998</v>
+        <v>333.40084074725354</v>
       </c>
       <c r="AB50" s="14">
-        <v>310.74829999999997</v>
+        <v>323.68830956781414</v>
       </c>
       <c r="AC50" s="14">
-        <v>300.90750000000003</v>
+        <v>329.65738893489811</v>
       </c>
       <c r="AD50" s="14">
-        <v>279.24700000000001</v>
+        <v>261.74734512118755</v>
       </c>
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.25">
@@ -10992,76 +11005,76 @@
         <v>54</v>
       </c>
       <c r="G51" s="14">
-        <v>160.77359999999999</v>
+        <v>151.64113971216463</v>
       </c>
       <c r="H51" s="14">
-        <v>149.898</v>
+        <v>136.18147788943858</v>
       </c>
       <c r="I51" s="14">
-        <v>142.749</v>
+        <v>129.43071340294821</v>
       </c>
       <c r="J51" s="14">
-        <v>139.2432</v>
+        <v>140.29724734971549</v>
       </c>
       <c r="K51" s="14">
-        <v>137.80629999999999</v>
+        <v>132.80056505011504</v>
       </c>
       <c r="L51" s="14">
-        <v>138.53440000000001</v>
+        <v>145.26893448314777</v>
       </c>
       <c r="M51" s="14">
-        <v>146.6961</v>
+        <v>137.46367721639882</v>
       </c>
       <c r="N51" s="14">
-        <v>159.0822</v>
+        <v>162.30355666895755</v>
       </c>
       <c r="O51" s="14">
-        <v>172.63380000000001</v>
+        <v>176.58778001080651</v>
       </c>
       <c r="P51" s="14">
-        <v>181.9606</v>
+        <v>169.63535441606635</v>
       </c>
       <c r="Q51" s="14">
-        <v>190.3631</v>
+        <v>206.16931272446814</v>
       </c>
       <c r="R51" s="14">
-        <v>194.61330000000001</v>
+        <v>207.71310262086982</v>
       </c>
       <c r="S51" s="14">
-        <v>197.23689999999999</v>
+        <v>204.92527838499922</v>
       </c>
       <c r="T51" s="14">
-        <v>197.13460000000001</v>
+        <v>178.98334688759294</v>
       </c>
       <c r="U51" s="14">
-        <v>190.45079999999999</v>
+        <v>198.90597289222484</v>
       </c>
       <c r="V51" s="14">
-        <v>188.11099999999999</v>
+        <v>175.64838922915953</v>
       </c>
       <c r="W51" s="14">
-        <v>188.11160000000001</v>
+        <v>170.13982125227886</v>
       </c>
       <c r="X51" s="14">
-        <v>189.43029999999999</v>
+        <v>197.38955920000086</v>
       </c>
       <c r="Y51" s="14">
-        <v>188.74809999999999</v>
+        <v>183.0956988283904</v>
       </c>
       <c r="Z51" s="14">
-        <v>187.84739999999999</v>
+        <v>182.98841200498495</v>
       </c>
       <c r="AA51" s="14">
-        <v>190.6979</v>
+        <v>199.82848243931105</v>
       </c>
       <c r="AB51" s="14">
-        <v>194.21770000000001</v>
+        <v>183.35083944679138</v>
       </c>
       <c r="AC51" s="14">
-        <v>188.06720000000001</v>
+        <v>188.04613892935461</v>
       </c>
       <c r="AD51" s="14">
-        <v>174.52940000000001</v>
+        <v>163.51906382956602</v>
       </c>
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.25">
@@ -11079,76 +11092,76 @@
         <v>54</v>
       </c>
       <c r="G52" s="14">
-        <v>160.77359999999999</v>
+        <v>149.60276430210101</v>
       </c>
       <c r="H52" s="14">
-        <v>149.898</v>
+        <v>150.59418255836297</v>
       </c>
       <c r="I52" s="14">
-        <v>142.749</v>
+        <v>132.35507988571283</v>
       </c>
       <c r="J52" s="14">
-        <v>139.2432</v>
+        <v>140.15034401648776</v>
       </c>
       <c r="K52" s="14">
-        <v>137.80629999999999</v>
+        <v>130.24705686878639</v>
       </c>
       <c r="L52" s="14">
-        <v>138.53440000000001</v>
+        <v>149.44100069066121</v>
       </c>
       <c r="M52" s="14">
-        <v>146.6961</v>
+        <v>144.81290248462957</v>
       </c>
       <c r="N52" s="14">
-        <v>159.0822</v>
+        <v>161.16947892099654</v>
       </c>
       <c r="O52" s="14">
-        <v>172.63380000000001</v>
+        <v>164.43974067322964</v>
       </c>
       <c r="P52" s="14">
-        <v>181.9606</v>
+        <v>186.29950833319074</v>
       </c>
       <c r="Q52" s="14">
-        <v>190.3631</v>
+        <v>202.25866363603413</v>
       </c>
       <c r="R52" s="14">
-        <v>194.61330000000001</v>
+        <v>200.22780911991026</v>
       </c>
       <c r="S52" s="14">
-        <v>197.23689999999999</v>
+        <v>186.22552630707187</v>
       </c>
       <c r="T52" s="14">
-        <v>197.13460000000001</v>
+        <v>201.50549354669155</v>
       </c>
       <c r="U52" s="14">
-        <v>190.45079999999999</v>
+        <v>183.8923480839301</v>
       </c>
       <c r="V52" s="14">
-        <v>188.11099999999999</v>
+        <v>198.81159282368151</v>
       </c>
       <c r="W52" s="14">
-        <v>188.11160000000001</v>
+        <v>172.787710440414</v>
       </c>
       <c r="X52" s="14">
-        <v>189.43029999999999</v>
+        <v>179.94726105204163</v>
       </c>
       <c r="Y52" s="14">
-        <v>188.74809999999999</v>
+        <v>200.43823541634433</v>
       </c>
       <c r="Z52" s="14">
-        <v>187.84739999999999</v>
+        <v>178.21157606137726</v>
       </c>
       <c r="AA52" s="14">
-        <v>190.6979</v>
+        <v>186.36818892453593</v>
       </c>
       <c r="AB52" s="14">
-        <v>194.21770000000001</v>
+        <v>184.53924458402687</v>
       </c>
       <c r="AC52" s="14">
-        <v>188.06720000000001</v>
+        <v>172.89594065769367</v>
       </c>
       <c r="AD52" s="14">
-        <v>174.52940000000001</v>
+        <v>159.5180726602558</v>
       </c>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.25">
@@ -11166,76 +11179,76 @@
         <v>54</v>
       </c>
       <c r="G53" s="14">
-        <v>570.17970000000003</v>
+        <v>604.271587500686</v>
       </c>
       <c r="H53" s="14">
-        <v>522.39229999999998</v>
+        <v>484.36596775868173</v>
       </c>
       <c r="I53" s="14">
-        <v>488.7022</v>
+        <v>496.09531492170697</v>
       </c>
       <c r="J53" s="14">
-        <v>467.99419999999998</v>
+        <v>457.71965501518957</v>
       </c>
       <c r="K53" s="14">
-        <v>455.05259999999998</v>
+        <v>433.62839615431642</v>
       </c>
       <c r="L53" s="14">
-        <v>451.05220000000003</v>
+        <v>489.68006983717669</v>
       </c>
       <c r="M53" s="14">
-        <v>467.68180000000001</v>
+        <v>509.60577147559007</v>
       </c>
       <c r="N53" s="14">
-        <v>500.48200000000003</v>
+        <v>482.39704908101862</v>
       </c>
       <c r="O53" s="14">
-        <v>541.49829999999997</v>
+        <v>519.01948105196823</v>
       </c>
       <c r="P53" s="14">
-        <v>574.04880000000003</v>
+        <v>528.24593806082237</v>
       </c>
       <c r="Q53" s="14">
-        <v>606.4796</v>
+        <v>573.16389333695929</v>
       </c>
       <c r="R53" s="14">
-        <v>614.29819999999995</v>
+        <v>628.86569512009623</v>
       </c>
       <c r="S53" s="14">
-        <v>611.39350000000002</v>
+        <v>618.55693915847462</v>
       </c>
       <c r="T53" s="14">
-        <v>606.41459999999995</v>
+        <v>598.95675826444119</v>
       </c>
       <c r="U53" s="14">
-        <v>588.28009999999995</v>
+        <v>636.02218121690885</v>
       </c>
       <c r="V53" s="14">
-        <v>579.50940000000003</v>
+        <v>597.62916107072306</v>
       </c>
       <c r="W53" s="14">
-        <v>577.8587</v>
+        <v>562.85136702414343</v>
       </c>
       <c r="X53" s="14">
-        <v>598.2364</v>
+        <v>556.97831858708605</v>
       </c>
       <c r="Y53" s="14">
-        <v>655.94659999999999</v>
+        <v>710.26374996145785</v>
       </c>
       <c r="Z53" s="14">
-        <v>668.52260000000001</v>
+        <v>601.68221717941105</v>
       </c>
       <c r="AA53" s="14">
-        <v>669.19590000000005</v>
+        <v>644.75539991808648</v>
       </c>
       <c r="AB53" s="14">
-        <v>664.73500000000001</v>
+        <v>730.39210588411481</v>
       </c>
       <c r="AC53" s="14">
-        <v>632.29920000000004</v>
+        <v>569.62708690338604</v>
       </c>
       <c r="AD53" s="14">
-        <v>621.2944</v>
+        <v>568.87244185828899</v>
       </c>
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.25">
@@ -11253,76 +11266,76 @@
         <v>54</v>
       </c>
       <c r="G54" s="14">
-        <v>266.0838</v>
+        <v>281.58934567319437</v>
       </c>
       <c r="H54" s="14">
-        <v>243.78309999999999</v>
+        <v>234.13226463743968</v>
       </c>
       <c r="I54" s="14">
-        <v>228.06100000000001</v>
+        <v>219.52650917753584</v>
       </c>
       <c r="J54" s="14">
-        <v>218.3973</v>
+        <v>226.90931676714973</v>
       </c>
       <c r="K54" s="14">
-        <v>212.3579</v>
+        <v>227.05546883589929</v>
       </c>
       <c r="L54" s="14">
-        <v>210.49100000000001</v>
+        <v>198.03033667242326</v>
       </c>
       <c r="M54" s="14">
-        <v>218.25149999999999</v>
+        <v>228.12649844189116</v>
       </c>
       <c r="N54" s="14">
-        <v>233.5583</v>
+        <v>246.76685598383017</v>
       </c>
       <c r="O54" s="14">
-        <v>252.69919999999999</v>
+        <v>251.8519357525976</v>
       </c>
       <c r="P54" s="14">
-        <v>267.88940000000002</v>
+        <v>294.12594315375424</v>
       </c>
       <c r="Q54" s="14">
-        <v>283.02379999999999</v>
+        <v>266.03935074089787</v>
       </c>
       <c r="R54" s="14">
-        <v>286.67250000000001</v>
+        <v>295.7165469705597</v>
       </c>
       <c r="S54" s="14">
-        <v>285.31700000000001</v>
+        <v>287.02521183062333</v>
       </c>
       <c r="T54" s="14">
-        <v>282.99349999999998</v>
+        <v>257.7226342631609</v>
       </c>
       <c r="U54" s="14">
-        <v>274.53070000000002</v>
+        <v>294.74126771866378</v>
       </c>
       <c r="V54" s="14">
-        <v>270.43770000000001</v>
+        <v>287.18407421029036</v>
       </c>
       <c r="W54" s="14">
-        <v>269.66739999999999</v>
+        <v>269.30631159842125</v>
       </c>
       <c r="X54" s="14">
-        <v>279.17700000000002</v>
+        <v>301.08908395822817</v>
       </c>
       <c r="Y54" s="14">
-        <v>306.10840000000002</v>
+        <v>327.53171472903836</v>
       </c>
       <c r="Z54" s="14">
-        <v>311.97719999999998</v>
+        <v>331.55126344736954</v>
       </c>
       <c r="AA54" s="14">
-        <v>312.29140000000001</v>
+        <v>320.48358984339228</v>
       </c>
       <c r="AB54" s="14">
-        <v>310.2097</v>
+        <v>307.77959903140123</v>
       </c>
       <c r="AC54" s="14">
-        <v>295.07299999999998</v>
+        <v>306.15874630048057</v>
       </c>
       <c r="AD54" s="14">
-        <v>289.93740000000003</v>
+        <v>299.47964740808055</v>
       </c>
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.25">
@@ -11340,76 +11353,76 @@
         <v>62</v>
       </c>
       <c r="G55" s="14">
-        <v>380.1198</v>
+        <v>384.73005359795491</v>
       </c>
       <c r="H55" s="14">
-        <v>348.26150000000001</v>
+        <v>335.77140926182346</v>
       </c>
       <c r="I55" s="14">
-        <v>325.80149999999998</v>
+        <v>293.5519609272211</v>
       </c>
       <c r="J55" s="14">
-        <v>311.99619999999999</v>
+        <v>310.74687911049733</v>
       </c>
       <c r="K55" s="14">
-        <v>303.36840000000001</v>
+        <v>314.15724809843834</v>
       </c>
       <c r="L55" s="14">
-        <v>300.70150000000001</v>
+        <v>292.94749496824983</v>
       </c>
       <c r="M55" s="14">
-        <v>311.78789999999998</v>
+        <v>296.82498606196719</v>
       </c>
       <c r="N55" s="14">
-        <v>333.65469999999999</v>
+        <v>350.42480832777574</v>
       </c>
       <c r="O55" s="14">
-        <v>360.99889999999999</v>
+        <v>343.86988712977131</v>
       </c>
       <c r="P55" s="14">
-        <v>382.69920000000002</v>
+        <v>403.38863019843808</v>
       </c>
       <c r="Q55" s="14">
-        <v>404.31979999999999</v>
+        <v>365.75248726724652</v>
       </c>
       <c r="R55" s="14">
-        <v>409.53219999999999</v>
+        <v>407.92212470808545</v>
       </c>
       <c r="S55" s="14">
-        <v>407.59570000000002</v>
+        <v>388.3049789648428</v>
       </c>
       <c r="T55" s="14">
-        <v>404.27640000000002</v>
+        <v>420.76314568711462</v>
       </c>
       <c r="U55" s="14">
-        <v>392.18680000000001</v>
+        <v>425.55707419574895</v>
       </c>
       <c r="V55" s="14">
-        <v>386.33960000000002</v>
+        <v>393.84679162724433</v>
       </c>
       <c r="W55" s="14">
-        <v>385.23910000000001</v>
+        <v>388.24746635611439</v>
       </c>
       <c r="X55" s="14">
-        <v>398.82429999999999</v>
+        <v>430.26366159901323</v>
       </c>
       <c r="Y55" s="14">
-        <v>437.2978</v>
+        <v>447.21938947525655</v>
       </c>
       <c r="Z55" s="14">
-        <v>445.68169999999998</v>
+        <v>416.35301267147605</v>
       </c>
       <c r="AA55" s="14">
-        <v>446.13060000000002</v>
+        <v>461.75846959152943</v>
       </c>
       <c r="AB55" s="14">
-        <v>443.1567</v>
+        <v>414.31658966517767</v>
       </c>
       <c r="AC55" s="14">
-        <v>421.53280000000001</v>
+        <v>421.04872748495154</v>
       </c>
       <c r="AD55" s="14">
-        <v>414.19619999999998</v>
+        <v>409.35505773746729</v>
       </c>
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.25">
@@ -11427,76 +11440,76 @@
         <v>62</v>
       </c>
       <c r="G56" s="14">
-        <v>760.23950000000002</v>
+        <v>810.00029661241456</v>
       </c>
       <c r="H56" s="14">
-        <v>696.52300000000002</v>
+        <v>630.15153157359828</v>
       </c>
       <c r="I56" s="14">
-        <v>651.60299999999995</v>
+        <v>634.14896554451911</v>
       </c>
       <c r="J56" s="14">
-        <v>623.9923</v>
+        <v>566.57466339843518</v>
       </c>
       <c r="K56" s="14">
-        <v>606.73680000000002</v>
+        <v>621.44032496964576</v>
       </c>
       <c r="L56" s="14">
-        <v>601.40300000000002</v>
+        <v>558.03390611722648</v>
       </c>
       <c r="M56" s="14">
-        <v>623.57579999999996</v>
+        <v>568.60844744404085</v>
       </c>
       <c r="N56" s="14">
-        <v>667.30939999999998</v>
+        <v>729.98683986690867</v>
       </c>
       <c r="O56" s="14">
-        <v>721.99770000000001</v>
+        <v>721.27058639517634</v>
       </c>
       <c r="P56" s="14">
-        <v>765.39829999999995</v>
+        <v>785.68201789712441</v>
       </c>
       <c r="Q56" s="14">
-        <v>808.6395</v>
+        <v>776.04876197051021</v>
       </c>
       <c r="R56" s="14">
-        <v>819.0643</v>
+        <v>793.09649275485776</v>
       </c>
       <c r="S56" s="14">
-        <v>815.19140000000004</v>
+        <v>890.27283149952018</v>
       </c>
       <c r="T56" s="14">
-        <v>808.55280000000005</v>
+        <v>797.33027581065323</v>
       </c>
       <c r="U56" s="14">
-        <v>784.37350000000004</v>
+        <v>842.44859139615676</v>
       </c>
       <c r="V56" s="14">
-        <v>772.67920000000004</v>
+        <v>784.85292419358336</v>
       </c>
       <c r="W56" s="14">
-        <v>770.47820000000002</v>
+        <v>745.32256675049416</v>
       </c>
       <c r="X56" s="14">
-        <v>797.64859999999999</v>
+        <v>836.00896918079752</v>
       </c>
       <c r="Y56" s="14">
-        <v>874.59550000000002</v>
+        <v>823.44618246911568</v>
       </c>
       <c r="Z56" s="14">
-        <v>891.36339999999996</v>
+        <v>960.2032913110495</v>
       </c>
       <c r="AA56" s="14">
-        <v>892.26120000000003</v>
+        <v>953.2831426012707</v>
       </c>
       <c r="AB56" s="14">
-        <v>886.3134</v>
+        <v>846.07113042649087</v>
       </c>
       <c r="AC56" s="14">
-        <v>843.06560000000002</v>
+        <v>921.04988650820314</v>
       </c>
       <c r="AD56" s="14">
-        <v>828.39250000000004</v>
+        <v>776.42083790667573</v>
       </c>
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.25">
@@ -11514,76 +11527,76 @@
         <v>54</v>
       </c>
       <c r="G57" s="14">
-        <v>190.0599</v>
+        <v>185.61603847746028</v>
       </c>
       <c r="H57" s="14">
-        <v>174.13079999999999</v>
+        <v>187.52112589703339</v>
       </c>
       <c r="I57" s="14">
-        <v>162.9007</v>
+        <v>170.59244089958719</v>
       </c>
       <c r="J57" s="14">
-        <v>155.99809999999999</v>
+        <v>149.64707673816793</v>
       </c>
       <c r="K57" s="14">
-        <v>151.6842</v>
+        <v>164.43736100291366</v>
       </c>
       <c r="L57" s="14">
-        <v>150.35069999999999</v>
+        <v>153.55689442896238</v>
       </c>
       <c r="M57" s="14">
-        <v>155.8939</v>
+        <v>152.97277445106261</v>
       </c>
       <c r="N57" s="14">
-        <v>166.82730000000001</v>
+        <v>159.24460998262737</v>
       </c>
       <c r="O57" s="14">
-        <v>180.49940000000001</v>
+        <v>197.14002544279361</v>
       </c>
       <c r="P57" s="14">
-        <v>191.34960000000001</v>
+        <v>172.45061904507276</v>
       </c>
       <c r="Q57" s="14">
-        <v>202.15989999999999</v>
+        <v>221.58257884305681</v>
       </c>
       <c r="R57" s="14">
-        <v>204.76609999999999</v>
+        <v>205.29886560749983</v>
       </c>
       <c r="S57" s="14">
-        <v>203.7978</v>
+        <v>208.97053265794528</v>
       </c>
       <c r="T57" s="14">
-        <v>202.13820000000001</v>
+        <v>194.28775935576417</v>
       </c>
       <c r="U57" s="14">
-        <v>196.0934</v>
+        <v>176.80864405118515</v>
       </c>
       <c r="V57" s="14">
-        <v>193.16980000000001</v>
+        <v>210.42124473592847</v>
       </c>
       <c r="W57" s="14">
-        <v>192.61959999999999</v>
+        <v>199.07276087665275</v>
       </c>
       <c r="X57" s="14">
-        <v>199.41210000000001</v>
+        <v>192.07926089500131</v>
       </c>
       <c r="Y57" s="14">
-        <v>218.6489</v>
+        <v>238.62301191281742</v>
       </c>
       <c r="Z57" s="14">
-        <v>222.8409</v>
+        <v>217.9650288713481</v>
       </c>
       <c r="AA57" s="14">
-        <v>223.06530000000001</v>
+        <v>211.62369076762917</v>
       </c>
       <c r="AB57" s="14">
-        <v>221.57830000000001</v>
+        <v>224.40416407889708</v>
       </c>
       <c r="AC57" s="14">
-        <v>210.7664</v>
+        <v>198.17464488824703</v>
       </c>
       <c r="AD57" s="14">
-        <v>207.09809999999999</v>
+        <v>198.90255144727732</v>
       </c>
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.25">
@@ -11601,76 +11614,76 @@
         <v>54</v>
       </c>
       <c r="G58" s="14">
-        <v>950.29939999999999</v>
+        <v>916.09555068566658</v>
       </c>
       <c r="H58" s="14">
-        <v>870.65380000000005</v>
+        <v>873.88203920587205</v>
       </c>
       <c r="I58" s="14">
-        <v>814.50369999999998</v>
+        <v>889.97201930970903</v>
       </c>
       <c r="J58" s="14">
-        <v>779.99040000000002</v>
+        <v>801.45913254573281</v>
       </c>
       <c r="K58" s="14">
-        <v>758.42100000000005</v>
+        <v>730.21447038274403</v>
       </c>
       <c r="L58" s="14">
-        <v>751.75369999999998</v>
+        <v>809.79751758406474</v>
       </c>
       <c r="M58" s="14">
-        <v>779.46969999999999</v>
+        <v>780.61192481157661</v>
       </c>
       <c r="N58" s="14">
-        <v>834.13670000000002</v>
+        <v>831.85198334680445</v>
       </c>
       <c r="O58" s="14">
-        <v>902.49720000000002</v>
+        <v>984.18000431593634</v>
       </c>
       <c r="P58" s="14">
-        <v>956.74789999999996</v>
+        <v>876.66151150386156</v>
       </c>
       <c r="Q58" s="14">
-        <v>1010.7994</v>
+        <v>1009.348497026177</v>
       </c>
       <c r="R58" s="14">
-        <v>1023.8304000000001</v>
+        <v>1009.4587033515812</v>
       </c>
       <c r="S58" s="14">
-        <v>1018.9892</v>
+        <v>1090.4886369299779</v>
       </c>
       <c r="T58" s="14">
-        <v>1010.691</v>
+        <v>929.91483465742431</v>
       </c>
       <c r="U58" s="14">
-        <v>980.46690000000001</v>
+        <v>1007.4029360192992</v>
       </c>
       <c r="V58" s="14">
-        <v>965.84900000000005</v>
+        <v>946.29574493708697</v>
       </c>
       <c r="W58" s="14">
-        <v>963.09780000000001</v>
+        <v>953.62512864913674</v>
       </c>
       <c r="X58" s="14">
-        <v>997.0607</v>
+        <v>985.08423776945983</v>
       </c>
       <c r="Y58" s="14">
-        <v>1093.2444</v>
+        <v>1182.9045295303658</v>
       </c>
       <c r="Z58" s="14">
-        <v>1114.2043000000001</v>
+        <v>1114.6771531435165</v>
       </c>
       <c r="AA58" s="14">
-        <v>1115.3264999999999</v>
+        <v>1024.0191739944244</v>
       </c>
       <c r="AB58" s="14">
-        <v>1107.8916999999999</v>
+        <v>1022.3954290296563</v>
       </c>
       <c r="AC58" s="14">
-        <v>1053.8320000000001</v>
+        <v>1019.5116209193512</v>
       </c>
       <c r="AD58" s="14">
-        <v>1035.4906000000001</v>
+        <v>966.28532799156062</v>
       </c>
     </row>
     <row r="59" spans="2:30" x14ac:dyDescent="0.25">
@@ -11688,76 +11701,76 @@
         <v>62</v>
       </c>
       <c r="G59" s="14">
-        <v>304.0958</v>
+        <v>303.15066007415089</v>
       </c>
       <c r="H59" s="14">
-        <v>278.60919999999999</v>
+        <v>260.24772688312783</v>
       </c>
       <c r="I59" s="14">
-        <v>260.64120000000003</v>
+        <v>273.69555542684822</v>
       </c>
       <c r="J59" s="14">
-        <v>249.59690000000001</v>
+        <v>225.4547551898963</v>
       </c>
       <c r="K59" s="14">
-        <v>242.69470000000001</v>
+        <v>259.32785449049783</v>
       </c>
       <c r="L59" s="14">
-        <v>240.56120000000001</v>
+        <v>218.95726452529698</v>
       </c>
       <c r="M59" s="14">
-        <v>249.43029999999999</v>
+        <v>261.54780389854682</v>
       </c>
       <c r="N59" s="14">
-        <v>266.92380000000003</v>
+        <v>251.71065364566695</v>
       </c>
       <c r="O59" s="14">
-        <v>288.79910000000001</v>
+        <v>292.2672625962291</v>
       </c>
       <c r="P59" s="14">
-        <v>306.15929999999997</v>
+        <v>314.14176652365876</v>
       </c>
       <c r="Q59" s="14">
-        <v>323.45580000000001</v>
+        <v>336.74656252711947</v>
       </c>
       <c r="R59" s="14">
-        <v>327.62569999999999</v>
+        <v>323.3293515533137</v>
       </c>
       <c r="S59" s="14">
-        <v>326.07659999999998</v>
+        <v>349.283009773331</v>
       </c>
       <c r="T59" s="14">
-        <v>323.42110000000002</v>
+        <v>305.06569678219427</v>
       </c>
       <c r="U59" s="14">
-        <v>313.74939999999998</v>
+        <v>302.27948920006196</v>
       </c>
       <c r="V59" s="14">
-        <v>309.07170000000002</v>
+        <v>297.75559555318159</v>
       </c>
       <c r="W59" s="14">
-        <v>308.19130000000001</v>
+        <v>337.67829738090666</v>
       </c>
       <c r="X59" s="14">
-        <v>319.05939999999998</v>
+        <v>311.20714563586421</v>
       </c>
       <c r="Y59" s="14">
-        <v>349.83819999999997</v>
+        <v>370.50585924310639</v>
       </c>
       <c r="Z59" s="14">
-        <v>356.54539999999997</v>
+        <v>372.60897183357389</v>
       </c>
       <c r="AA59" s="14">
-        <v>356.90449999999998</v>
+        <v>370.86893495811091</v>
       </c>
       <c r="AB59" s="14">
-        <v>354.52539999999999</v>
+        <v>356.33887564269759</v>
       </c>
       <c r="AC59" s="14">
-        <v>337.22620000000001</v>
+        <v>330.26493169017209</v>
       </c>
       <c r="AD59" s="14">
-        <v>331.35700000000003</v>
+        <v>331.76976717721811</v>
       </c>
     </row>
     <row r="60" spans="2:30" x14ac:dyDescent="0.25">
@@ -11775,76 +11788,76 @@
         <v>62</v>
       </c>
       <c r="G60" s="14">
-        <v>190.0599</v>
+        <v>175.7725431138895</v>
       </c>
       <c r="H60" s="14">
-        <v>174.13079999999999</v>
+        <v>161.80183441158374</v>
       </c>
       <c r="I60" s="14">
-        <v>162.9007</v>
+        <v>168.30145087700058</v>
       </c>
       <c r="J60" s="14">
-        <v>155.99809999999999</v>
+        <v>142.79254273739502</v>
       </c>
       <c r="K60" s="14">
-        <v>151.6842</v>
+        <v>136.62482971208908</v>
       </c>
       <c r="L60" s="14">
-        <v>150.35069999999999</v>
+        <v>149.27027159202851</v>
       </c>
       <c r="M60" s="14">
-        <v>155.8939</v>
+        <v>162.47179729176952</v>
       </c>
       <c r="N60" s="14">
-        <v>166.82730000000001</v>
+        <v>162.87858307836703</v>
       </c>
       <c r="O60" s="14">
-        <v>180.49940000000001</v>
+        <v>188.92639286089425</v>
       </c>
       <c r="P60" s="14">
-        <v>191.34960000000001</v>
+        <v>178.83786469573803</v>
       </c>
       <c r="Q60" s="14">
-        <v>202.15989999999999</v>
+        <v>202.19224836285062</v>
       </c>
       <c r="R60" s="14">
-        <v>204.76609999999999</v>
+        <v>199.77961536828641</v>
       </c>
       <c r="S60" s="14">
-        <v>203.7978</v>
+        <v>199.82389832921831</v>
       </c>
       <c r="T60" s="14">
-        <v>202.13820000000001</v>
+        <v>196.69288653369986</v>
       </c>
       <c r="U60" s="14">
-        <v>196.0934</v>
+        <v>200.14784454749031</v>
       </c>
       <c r="V60" s="14">
-        <v>193.16980000000001</v>
+        <v>183.38708053001909</v>
       </c>
       <c r="W60" s="14">
-        <v>192.61959999999999</v>
+        <v>187.86179904713336</v>
       </c>
       <c r="X60" s="14">
-        <v>199.41210000000001</v>
+        <v>199.09759417646205</v>
       </c>
       <c r="Y60" s="14">
-        <v>218.6489</v>
+        <v>213.22883572688244</v>
       </c>
       <c r="Z60" s="14">
-        <v>222.8409</v>
+        <v>210.32331308822282</v>
       </c>
       <c r="AA60" s="14">
-        <v>223.06530000000001</v>
+        <v>208.12450101646556</v>
       </c>
       <c r="AB60" s="14">
-        <v>221.57830000000001</v>
+        <v>225.49737979737998</v>
       </c>
       <c r="AC60" s="14">
-        <v>210.7664</v>
+        <v>229.60052737905031</v>
       </c>
       <c r="AD60" s="14">
-        <v>207.09809999999999</v>
+        <v>191.07370436413461</v>
       </c>
     </row>
     <row r="61" spans="2:30" x14ac:dyDescent="0.25">
@@ -11862,76 +11875,76 @@
         <v>54</v>
       </c>
       <c r="G61" s="14">
-        <v>190.0599</v>
+        <v>172.8882914883844</v>
       </c>
       <c r="H61" s="14">
-        <v>174.13079999999999</v>
+        <v>182.23001006591716</v>
       </c>
       <c r="I61" s="14">
-        <v>162.9007</v>
+        <v>176.60023615101196</v>
       </c>
       <c r="J61" s="14">
-        <v>155.99809999999999</v>
+        <v>150.60664256563314</v>
       </c>
       <c r="K61" s="14">
-        <v>151.6842</v>
+        <v>157.36688080444318</v>
       </c>
       <c r="L61" s="14">
-        <v>150.35069999999999</v>
+        <v>150.62605772085217</v>
       </c>
       <c r="M61" s="14">
-        <v>155.8939</v>
+        <v>164.24918301516098</v>
       </c>
       <c r="N61" s="14">
-        <v>166.82730000000001</v>
+        <v>177.42502697342687</v>
       </c>
       <c r="O61" s="14">
-        <v>180.49940000000001</v>
+        <v>187.10077229307311</v>
       </c>
       <c r="P61" s="14">
-        <v>191.34960000000001</v>
+        <v>192.81424338937001</v>
       </c>
       <c r="Q61" s="14">
-        <v>202.15989999999999</v>
+        <v>203.10830756834534</v>
       </c>
       <c r="R61" s="14">
-        <v>204.76609999999999</v>
+        <v>187.60627565610565</v>
       </c>
       <c r="S61" s="14">
-        <v>203.7978</v>
+        <v>214.04537783721156</v>
       </c>
       <c r="T61" s="14">
-        <v>202.13820000000001</v>
+        <v>207.48576102500402</v>
       </c>
       <c r="U61" s="14">
-        <v>196.0934</v>
+        <v>212.82698491422406</v>
       </c>
       <c r="V61" s="14">
-        <v>193.16980000000001</v>
+        <v>210.43634597669217</v>
       </c>
       <c r="W61" s="14">
-        <v>192.61959999999999</v>
+        <v>201.3652613578607</v>
       </c>
       <c r="X61" s="14">
-        <v>199.41210000000001</v>
+        <v>214.9720212671177</v>
       </c>
       <c r="Y61" s="14">
-        <v>218.6489</v>
+        <v>225.06260968581535</v>
       </c>
       <c r="Z61" s="14">
-        <v>222.8409</v>
+        <v>210.81424865895931</v>
       </c>
       <c r="AA61" s="14">
-        <v>223.06530000000001</v>
+        <v>229.06442503878714</v>
       </c>
       <c r="AB61" s="14">
-        <v>221.57830000000001</v>
+        <v>242.80052702789018</v>
       </c>
       <c r="AC61" s="14">
-        <v>210.7664</v>
+        <v>213.7295097706193</v>
       </c>
       <c r="AD61" s="14">
-        <v>207.09809999999999</v>
+        <v>194.0319751939434</v>
       </c>
     </row>
     <row r="62" spans="2:30" x14ac:dyDescent="0.25">
@@ -11949,76 +11962,76 @@
         <v>54</v>
       </c>
       <c r="G62" s="14">
-        <v>556.65830000000005</v>
+        <v>512.67678623153847</v>
       </c>
       <c r="H62" s="14">
-        <v>513.60519999999997</v>
+        <v>523.54918375636703</v>
       </c>
       <c r="I62" s="14">
-        <v>482.9846</v>
+        <v>507.29204703762224</v>
       </c>
       <c r="J62" s="14">
-        <v>465.04719999999998</v>
+        <v>421.84778774874832</v>
       </c>
       <c r="K62" s="14">
-        <v>454.12549999999999</v>
+        <v>412.41452702348653</v>
       </c>
       <c r="L62" s="14">
-        <v>452.39139999999998</v>
+        <v>421.14781685711444</v>
       </c>
       <c r="M62" s="14">
-        <v>476.27449999999999</v>
+        <v>458.84931234230538</v>
       </c>
       <c r="N62" s="14">
-        <v>517.48199999999997</v>
+        <v>479.19016711151545</v>
       </c>
       <c r="O62" s="14">
-        <v>563.65440000000001</v>
+        <v>550.23827941612876</v>
       </c>
       <c r="P62" s="14">
-        <v>590.79139999999995</v>
+        <v>619.77063961786951</v>
       </c>
       <c r="Q62" s="14">
-        <v>617.53989999999999</v>
+        <v>591.4705417355824</v>
       </c>
       <c r="R62" s="14">
-        <v>624.40809999999999</v>
+        <v>643.26935430309152</v>
       </c>
       <c r="S62" s="14">
-        <v>623.1626</v>
+        <v>597.65577129711517</v>
       </c>
       <c r="T62" s="14">
-        <v>614.17989999999998</v>
+        <v>635.86825248246987</v>
       </c>
       <c r="U62" s="14">
-        <v>589.44150000000002</v>
+        <v>592.72710549234125</v>
       </c>
       <c r="V62" s="14">
-        <v>581.27700000000004</v>
+        <v>599.41859033935953</v>
       </c>
       <c r="W62" s="14">
-        <v>578.62260000000003</v>
+        <v>619.12746265581495</v>
       </c>
       <c r="X62" s="14">
-        <v>586.89059999999995</v>
+        <v>531.16568759323195</v>
       </c>
       <c r="Y62" s="14">
-        <v>619.91930000000002</v>
+        <v>601.86729735296638</v>
       </c>
       <c r="Z62" s="14">
-        <v>649.38160000000005</v>
+        <v>651.35285350572553</v>
       </c>
       <c r="AA62" s="14">
-        <v>655.36210000000005</v>
+        <v>617.29381508009112</v>
       </c>
       <c r="AB62" s="14">
-        <v>648.64729999999997</v>
+        <v>630.42514559238975</v>
       </c>
       <c r="AC62" s="14">
-        <v>612.60599999999999</v>
+        <v>581.43911416414301</v>
       </c>
       <c r="AD62" s="14">
-        <v>599.70889999999997</v>
+        <v>581.82838125652484</v>
       </c>
     </row>
     <row r="63" spans="2:30" x14ac:dyDescent="0.25">
@@ -12036,76 +12049,76 @@
         <v>54</v>
       </c>
       <c r="G63" s="14">
-        <v>259.77390000000003</v>
+        <v>250.72404431038603</v>
       </c>
       <c r="H63" s="14">
-        <v>239.6824</v>
+        <v>251.73173646750061</v>
       </c>
       <c r="I63" s="14">
-        <v>225.39279999999999</v>
+        <v>246.40160915091693</v>
       </c>
       <c r="J63" s="14">
-        <v>217.02199999999999</v>
+        <v>195.44293274596572</v>
       </c>
       <c r="K63" s="14">
-        <v>211.92519999999999</v>
+        <v>195.70648793112605</v>
       </c>
       <c r="L63" s="14">
-        <v>211.11600000000001</v>
+        <v>226.12341039191841</v>
       </c>
       <c r="M63" s="14">
-        <v>222.26140000000001</v>
+        <v>221.25487389729736</v>
       </c>
       <c r="N63" s="14">
-        <v>241.49160000000001</v>
+        <v>262.71045462477167</v>
       </c>
       <c r="O63" s="14">
-        <v>263.03870000000001</v>
+        <v>260.15477847560425</v>
       </c>
       <c r="P63" s="14">
-        <v>275.70260000000002</v>
+        <v>276.5131263129868</v>
       </c>
       <c r="Q63" s="14">
-        <v>288.18529999999998</v>
+        <v>269.14811066217919</v>
       </c>
       <c r="R63" s="14">
-        <v>291.39049999999997</v>
+        <v>296.70942835842266</v>
       </c>
       <c r="S63" s="14">
-        <v>290.80919999999998</v>
+        <v>287.4128621383237</v>
       </c>
       <c r="T63" s="14">
-        <v>286.6173</v>
+        <v>285.02276526226922</v>
       </c>
       <c r="U63" s="14">
-        <v>275.0727</v>
+        <v>257.96831163078264</v>
       </c>
       <c r="V63" s="14">
-        <v>271.26260000000002</v>
+        <v>266.20229344157588</v>
       </c>
       <c r="W63" s="14">
-        <v>270.02390000000003</v>
+        <v>295.19451060226481</v>
       </c>
       <c r="X63" s="14">
-        <v>273.88229999999999</v>
+        <v>296.58529412099881</v>
       </c>
       <c r="Y63" s="14">
-        <v>289.29570000000001</v>
+        <v>317.11069904170716</v>
       </c>
       <c r="Z63" s="14">
-        <v>303.04469999999998</v>
+        <v>289.49339599876316</v>
       </c>
       <c r="AA63" s="14">
-        <v>305.8356</v>
+        <v>280.25570450883851</v>
       </c>
       <c r="AB63" s="14">
-        <v>302.70209999999997</v>
+        <v>275.67258063789848</v>
       </c>
       <c r="AC63" s="14">
-        <v>285.88279999999997</v>
+        <v>265.41669199304664</v>
       </c>
       <c r="AD63" s="14">
-        <v>279.86419999999998</v>
+        <v>295.63651824109741</v>
       </c>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.25">
@@ -12123,76 +12136,76 @@
         <v>54</v>
       </c>
       <c r="G64" s="14">
-        <v>371.10550000000001</v>
+        <v>371.93756740678492</v>
       </c>
       <c r="H64" s="14">
-        <v>342.40350000000001</v>
+        <v>345.6873539241476</v>
       </c>
       <c r="I64" s="14">
-        <v>321.98970000000003</v>
+        <v>348.99812115953807</v>
       </c>
       <c r="J64" s="14">
-        <v>310.03140000000002</v>
+        <v>333.7421447009819</v>
       </c>
       <c r="K64" s="14">
-        <v>302.75029999999998</v>
+        <v>324.698491183523</v>
       </c>
       <c r="L64" s="14">
-        <v>301.59429999999998</v>
+        <v>311.43262416884932</v>
       </c>
       <c r="M64" s="14">
-        <v>317.5163</v>
+        <v>286.84874383474482</v>
       </c>
       <c r="N64" s="14">
-        <v>344.988</v>
+        <v>312.09452850825653</v>
       </c>
       <c r="O64" s="14">
-        <v>375.76960000000003</v>
+        <v>412.18171935777718</v>
       </c>
       <c r="P64" s="14">
-        <v>393.86090000000002</v>
+        <v>409.06751133109032</v>
       </c>
       <c r="Q64" s="14">
-        <v>411.69330000000002</v>
+        <v>372.24426576487258</v>
       </c>
       <c r="R64" s="14">
-        <v>416.27210000000002</v>
+        <v>375.73054613373415</v>
       </c>
       <c r="S64" s="14">
-        <v>415.44170000000003</v>
+        <v>407.38162474560107</v>
       </c>
       <c r="T64" s="14">
-        <v>409.45319999999998</v>
+        <v>440.13674611300178</v>
       </c>
       <c r="U64" s="14">
-        <v>392.96100000000001</v>
+        <v>383.01661022068481</v>
       </c>
       <c r="V64" s="14">
-        <v>387.51799999999997</v>
+        <v>358.31313796789777</v>
       </c>
       <c r="W64" s="14">
-        <v>385.7484</v>
+        <v>399.97849125013556</v>
       </c>
       <c r="X64" s="14">
-        <v>391.2604</v>
+        <v>355.15280440078084</v>
       </c>
       <c r="Y64" s="14">
-        <v>413.27960000000002</v>
+        <v>403.80685149834278</v>
       </c>
       <c r="Z64" s="14">
-        <v>432.92099999999999</v>
+        <v>468.25414042962637</v>
       </c>
       <c r="AA64" s="14">
-        <v>436.90809999999999</v>
+        <v>422.49796446847466</v>
       </c>
       <c r="AB64" s="14">
-        <v>432.43150000000003</v>
+        <v>439.13836252040318</v>
       </c>
       <c r="AC64" s="14">
-        <v>408.404</v>
+        <v>384.01251252672836</v>
       </c>
       <c r="AD64" s="14">
-        <v>399.80590000000001</v>
+        <v>361.69574632312646</v>
       </c>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.25">
@@ -12210,76 +12223,76 @@
         <v>54</v>
       </c>
       <c r="G65" s="14">
-        <v>742.21109999999999</v>
+        <v>698.15147919945571</v>
       </c>
       <c r="H65" s="14">
-        <v>684.80690000000004</v>
+        <v>739.87418758301169</v>
       </c>
       <c r="I65" s="14">
-        <v>643.97940000000006</v>
+        <v>597.76879935689965</v>
       </c>
       <c r="J65" s="14">
-        <v>620.06290000000001</v>
+        <v>591.63415235145635</v>
       </c>
       <c r="K65" s="14">
-        <v>605.50059999999996</v>
+        <v>585.22066135539012</v>
       </c>
       <c r="L65" s="14">
-        <v>603.18859999999995</v>
+        <v>564.9224988252646</v>
       </c>
       <c r="M65" s="14">
-        <v>635.03269999999998</v>
+        <v>608.61999626808677</v>
       </c>
       <c r="N65" s="14">
-        <v>689.976</v>
+        <v>707.46101749865034</v>
       </c>
       <c r="O65" s="14">
-        <v>751.53909999999996</v>
+        <v>818.42661105509433</v>
       </c>
       <c r="P65" s="14">
-        <v>787.72180000000003</v>
+        <v>729.92261331726013</v>
       </c>
       <c r="Q65" s="14">
-        <v>823.38660000000004</v>
+        <v>777.02399883241617</v>
       </c>
       <c r="R65" s="14">
-        <v>832.54420000000005</v>
+        <v>754.44606313758993</v>
       </c>
       <c r="S65" s="14">
-        <v>830.88350000000003</v>
+        <v>791.97709381609263</v>
       </c>
       <c r="T65" s="14">
-        <v>818.90650000000005</v>
+        <v>791.13067658644547</v>
       </c>
       <c r="U65" s="14">
-        <v>785.92200000000003</v>
+        <v>822.06434439088719</v>
       </c>
       <c r="V65" s="14">
-        <v>775.03599999999994</v>
+        <v>715.96690524478083</v>
       </c>
       <c r="W65" s="14">
-        <v>771.49680000000001</v>
+        <v>825.10797811644659</v>
       </c>
       <c r="X65" s="14">
-        <v>782.52080000000001</v>
+        <v>715.40551875920323</v>
       </c>
       <c r="Y65" s="14">
-        <v>826.55909999999994</v>
+        <v>838.45256166357149</v>
       </c>
       <c r="Z65" s="14">
-        <v>865.84209999999996</v>
+        <v>828.93160560250135</v>
       </c>
       <c r="AA65" s="14">
-        <v>873.81610000000001</v>
+        <v>893.24785176986063</v>
       </c>
       <c r="AB65" s="14">
-        <v>864.86310000000003</v>
+        <v>873.10632076461275</v>
       </c>
       <c r="AC65" s="14">
-        <v>816.80799999999999</v>
+        <v>896.42116877846399</v>
       </c>
       <c r="AD65" s="14">
-        <v>799.61189999999999</v>
+        <v>831.21775449042013</v>
       </c>
     </row>
     <row r="66" spans="2:30" x14ac:dyDescent="0.25">
@@ -12297,76 +12310,76 @@
         <v>54</v>
       </c>
       <c r="G66" s="14">
-        <v>185.55279999999999</v>
+        <v>183.6264574845473</v>
       </c>
       <c r="H66" s="14">
-        <v>171.20169999999999</v>
+        <v>173.97936219083078</v>
       </c>
       <c r="I66" s="14">
-        <v>160.9949</v>
+        <v>162.43684636280017</v>
       </c>
       <c r="J66" s="14">
-        <v>155.01570000000001</v>
+        <v>153.66067479308148</v>
       </c>
       <c r="K66" s="14">
-        <v>151.37520000000001</v>
+        <v>165.29525048286678</v>
       </c>
       <c r="L66" s="14">
-        <v>150.7971</v>
+        <v>156.66391890087618</v>
       </c>
       <c r="M66" s="14">
-        <v>158.75819999999999</v>
+        <v>145.67156369984642</v>
       </c>
       <c r="N66" s="14">
-        <v>172.494</v>
+        <v>164.08627642539537</v>
       </c>
       <c r="O66" s="14">
-        <v>187.88480000000001</v>
+        <v>178.19351644343791</v>
       </c>
       <c r="P66" s="14">
-        <v>196.93049999999999</v>
+        <v>207.35968967505866</v>
       </c>
       <c r="Q66" s="14">
-        <v>205.8466</v>
+        <v>218.7846108138433</v>
       </c>
       <c r="R66" s="14">
-        <v>208.136</v>
+        <v>187.34897975397476</v>
       </c>
       <c r="S66" s="14">
-        <v>207.7209</v>
+        <v>214.54572018081859</v>
       </c>
       <c r="T66" s="14">
-        <v>204.72659999999999</v>
+        <v>189.5368483497823</v>
       </c>
       <c r="U66" s="14">
-        <v>196.48050000000001</v>
+        <v>201.37696421926702</v>
       </c>
       <c r="V66" s="14">
-        <v>193.75899999999999</v>
+        <v>206.67956499977561</v>
       </c>
       <c r="W66" s="14">
-        <v>192.8742</v>
+        <v>183.45658324916772</v>
       </c>
       <c r="X66" s="14">
-        <v>195.6302</v>
+        <v>180.25599822672257</v>
       </c>
       <c r="Y66" s="14">
-        <v>206.63980000000001</v>
+        <v>194.23751852142553</v>
       </c>
       <c r="Z66" s="14">
-        <v>216.4605</v>
+        <v>235.35869940708147</v>
       </c>
       <c r="AA66" s="14">
-        <v>218.45400000000001</v>
+        <v>216.28168423501191</v>
       </c>
       <c r="AB66" s="14">
-        <v>216.2158</v>
+        <v>199.66553374919135</v>
       </c>
       <c r="AC66" s="14">
-        <v>204.202</v>
+        <v>199.10250422081779</v>
       </c>
       <c r="AD66" s="14">
-        <v>199.90299999999999</v>
+        <v>210.23463849092749</v>
       </c>
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.25">
@@ -12384,76 +12397,76 @@
         <v>54</v>
       </c>
       <c r="G67" s="14">
-        <v>927.76390000000004</v>
+        <v>902.7417015348949</v>
       </c>
       <c r="H67" s="14">
-        <v>856.00869999999998</v>
+        <v>925.97186386673798</v>
       </c>
       <c r="I67" s="14">
-        <v>804.97429999999997</v>
+        <v>768.16687935880941</v>
       </c>
       <c r="J67" s="14">
-        <v>775.07860000000005</v>
+        <v>829.97210481966681</v>
       </c>
       <c r="K67" s="14">
-        <v>756.87580000000003</v>
+        <v>766.60059859894</v>
       </c>
       <c r="L67" s="14">
-        <v>753.98569999999995</v>
+        <v>697.07062503772613</v>
       </c>
       <c r="M67" s="14">
-        <v>793.79079999999999</v>
+        <v>801.84760434566704</v>
       </c>
       <c r="N67" s="14">
-        <v>862.47</v>
+        <v>924.52984202187008</v>
       </c>
       <c r="O67" s="14">
-        <v>939.4239</v>
+        <v>983.74970670065943</v>
       </c>
       <c r="P67" s="14">
-        <v>984.65229999999997</v>
+        <v>975.89354601234402</v>
       </c>
       <c r="Q67" s="14">
-        <v>1029.2331999999999</v>
+        <v>957.28976010237977</v>
       </c>
       <c r="R67" s="14">
-        <v>1040.6802</v>
+        <v>1092.1800513917312</v>
       </c>
       <c r="S67" s="14">
-        <v>1038.6043</v>
+        <v>954.46040809400336</v>
       </c>
       <c r="T67" s="14">
-        <v>1023.6331</v>
+        <v>979.72364494547207</v>
       </c>
       <c r="U67" s="14">
-        <v>982.40250000000003</v>
+        <v>907.7387409865197</v>
       </c>
       <c r="V67" s="14">
-        <v>968.79499999999996</v>
+        <v>1032.3974620329204</v>
       </c>
       <c r="W67" s="14">
-        <v>964.37099999999998</v>
+        <v>957.14093004135418</v>
       </c>
       <c r="X67" s="14">
-        <v>978.15110000000004</v>
+        <v>883.77486097905353</v>
       </c>
       <c r="Y67" s="14">
-        <v>1033.1989000000001</v>
+        <v>1109.4418975115029</v>
       </c>
       <c r="Z67" s="14">
-        <v>1082.3026</v>
+        <v>1127.9603675441031</v>
       </c>
       <c r="AA67" s="14">
-        <v>1092.2701</v>
+        <v>1050.5582592610119</v>
       </c>
       <c r="AB67" s="14">
-        <v>1081.0788</v>
+        <v>1164.8723180264374</v>
       </c>
       <c r="AC67" s="14">
-        <v>1021.01</v>
+        <v>979.85071021345277</v>
       </c>
       <c r="AD67" s="14">
-        <v>999.51480000000004</v>
+        <v>984.16556642341561</v>
       </c>
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.25">
@@ -12471,76 +12484,76 @@
         <v>54</v>
       </c>
       <c r="G68" s="14">
-        <v>296.88440000000003</v>
+        <v>298.07840077993427</v>
       </c>
       <c r="H68" s="14">
-        <v>273.9228</v>
+        <v>274.54142204692278</v>
       </c>
       <c r="I68" s="14">
-        <v>257.59179999999998</v>
+        <v>276.72852980196046</v>
       </c>
       <c r="J68" s="14">
-        <v>248.02520000000001</v>
+        <v>255.80988261101911</v>
       </c>
       <c r="K68" s="14">
-        <v>242.2002</v>
+        <v>263.68979006287884</v>
       </c>
       <c r="L68" s="14">
-        <v>241.27539999999999</v>
+        <v>230.22136650710232</v>
       </c>
       <c r="M68" s="14">
-        <v>254.01310000000001</v>
+        <v>252.26466861332574</v>
       </c>
       <c r="N68" s="14">
-        <v>275.99040000000002</v>
+        <v>277.12913915275863</v>
       </c>
       <c r="O68" s="14">
-        <v>300.6157</v>
+        <v>286.07904368258761</v>
       </c>
       <c r="P68" s="14">
-        <v>315.08870000000002</v>
+        <v>346.07821120194563</v>
       </c>
       <c r="Q68" s="14">
-        <v>329.3546</v>
+        <v>306.43236855004375</v>
       </c>
       <c r="R68" s="14">
-        <v>333.01769999999999</v>
+        <v>315.61517171126258</v>
       </c>
       <c r="S68" s="14">
-        <v>332.35340000000002</v>
+        <v>331.74557987552362</v>
       </c>
       <c r="T68" s="14">
-        <v>327.56259999999997</v>
+        <v>356.36583181618084</v>
       </c>
       <c r="U68" s="14">
-        <v>314.36880000000002</v>
+        <v>313.72853693812323</v>
       </c>
       <c r="V68" s="14">
-        <v>310.01440000000002</v>
+        <v>281.56125731267645</v>
       </c>
       <c r="W68" s="14">
-        <v>308.59870000000001</v>
+        <v>303.15561603562941</v>
       </c>
       <c r="X68" s="14">
-        <v>313.00830000000002</v>
+        <v>302.21988960343174</v>
       </c>
       <c r="Y68" s="14">
-        <v>330.62360000000001</v>
+        <v>359.22633568715156</v>
       </c>
       <c r="Z68" s="14">
-        <v>346.33679999999998</v>
+        <v>353.03147647027095</v>
       </c>
       <c r="AA68" s="14">
-        <v>349.52640000000002</v>
+        <v>330.68279594963747</v>
       </c>
       <c r="AB68" s="14">
-        <v>345.9452</v>
+        <v>330.69931492287424</v>
       </c>
       <c r="AC68" s="14">
-        <v>326.72320000000002</v>
+        <v>306.31895237939989</v>
       </c>
       <c r="AD68" s="14">
-        <v>319.84480000000002</v>
+        <v>351.62259263274279</v>
       </c>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.25">
@@ -12558,76 +12571,76 @@
         <v>62</v>
       </c>
       <c r="G69" s="14">
-        <v>185.55279999999999</v>
+        <v>183.47603826894257</v>
       </c>
       <c r="H69" s="14">
-        <v>171.20169999999999</v>
+        <v>175.69250212596489</v>
       </c>
       <c r="I69" s="14">
-        <v>160.9949</v>
+        <v>168.8304133576695</v>
       </c>
       <c r="J69" s="14">
-        <v>155.01570000000001</v>
+        <v>146.58448836212455</v>
       </c>
       <c r="K69" s="14">
-        <v>151.37520000000001</v>
+        <v>157.27032974019531</v>
       </c>
       <c r="L69" s="14">
-        <v>150.7971</v>
+        <v>148.46975556607001</v>
       </c>
       <c r="M69" s="14">
-        <v>158.75819999999999</v>
+        <v>166.00455941729729</v>
       </c>
       <c r="N69" s="14">
-        <v>172.494</v>
+        <v>185.60980207861019</v>
       </c>
       <c r="O69" s="14">
-        <v>187.88480000000001</v>
+        <v>188.45829799419928</v>
       </c>
       <c r="P69" s="14">
-        <v>196.93049999999999</v>
+        <v>188.67966268241727</v>
       </c>
       <c r="Q69" s="14">
-        <v>205.8466</v>
+        <v>212.13665729854822</v>
       </c>
       <c r="R69" s="14">
-        <v>208.136</v>
+        <v>200.51660431325652</v>
       </c>
       <c r="S69" s="14">
-        <v>207.7209</v>
+        <v>222.35144643443621</v>
       </c>
       <c r="T69" s="14">
-        <v>204.72659999999999</v>
+        <v>187.5889396294603</v>
       </c>
       <c r="U69" s="14">
-        <v>196.48050000000001</v>
+        <v>209.80944446009079</v>
       </c>
       <c r="V69" s="14">
-        <v>193.75899999999999</v>
+        <v>175.35921051348936</v>
       </c>
       <c r="W69" s="14">
-        <v>192.8742</v>
+        <v>198.70528763465691</v>
       </c>
       <c r="X69" s="14">
-        <v>195.6302</v>
+        <v>198.05370945682714</v>
       </c>
       <c r="Y69" s="14">
-        <v>206.63980000000001</v>
+        <v>201.66989143284789</v>
       </c>
       <c r="Z69" s="14">
-        <v>216.4605</v>
+        <v>219.52686065093624</v>
       </c>
       <c r="AA69" s="14">
-        <v>218.45400000000001</v>
+        <v>235.90190132795553</v>
       </c>
       <c r="AB69" s="14">
-        <v>216.2158</v>
+        <v>205.44473864928258</v>
       </c>
       <c r="AC69" s="14">
-        <v>204.202</v>
+        <v>215.40112822687357</v>
       </c>
       <c r="AD69" s="14">
-        <v>199.90299999999999</v>
+        <v>196.44483029544801</v>
       </c>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.25">
@@ -12645,76 +12658,76 @@
         <v>62</v>
       </c>
       <c r="G70" s="14">
-        <v>185.55279999999999</v>
+        <v>190.49888879211758</v>
       </c>
       <c r="H70" s="14">
-        <v>171.20169999999999</v>
+        <v>180.36600885217734</v>
       </c>
       <c r="I70" s="14">
-        <v>160.9949</v>
+        <v>170.47510834170856</v>
       </c>
       <c r="J70" s="14">
-        <v>155.01570000000001</v>
+        <v>166.01712250957431</v>
       </c>
       <c r="K70" s="14">
-        <v>151.37520000000001</v>
+        <v>138.55742012250928</v>
       </c>
       <c r="L70" s="14">
-        <v>150.7971</v>
+        <v>138.23623659944843</v>
       </c>
       <c r="M70" s="14">
-        <v>158.75819999999999</v>
+        <v>157.06690098069714</v>
       </c>
       <c r="N70" s="14">
-        <v>172.494</v>
+        <v>188.65345246805751</v>
       </c>
       <c r="O70" s="14">
-        <v>187.88480000000001</v>
+        <v>180.55043290247437</v>
       </c>
       <c r="P70" s="14">
-        <v>196.93049999999999</v>
+        <v>183.53232938995637</v>
       </c>
       <c r="Q70" s="14">
-        <v>205.8466</v>
+        <v>223.5957457529957</v>
       </c>
       <c r="R70" s="14">
-        <v>208.136</v>
+        <v>224.4176778402213</v>
       </c>
       <c r="S70" s="14">
-        <v>207.7209</v>
+        <v>202.24006675327448</v>
       </c>
       <c r="T70" s="14">
-        <v>204.72659999999999</v>
+        <v>217.92576267639174</v>
       </c>
       <c r="U70" s="14">
-        <v>196.48050000000001</v>
+        <v>198.41534916091348</v>
       </c>
       <c r="V70" s="14">
-        <v>193.75899999999999</v>
+        <v>183.5772104938699</v>
       </c>
       <c r="W70" s="14">
-        <v>192.8742</v>
+        <v>187.57014724700616</v>
       </c>
       <c r="X70" s="14">
-        <v>195.6302</v>
+        <v>198.20038092748939</v>
       </c>
       <c r="Y70" s="14">
-        <v>206.63980000000001</v>
+        <v>190.50753561344939</v>
       </c>
       <c r="Z70" s="14">
-        <v>216.4605</v>
+        <v>196.65610480931733</v>
       </c>
       <c r="AA70" s="14">
-        <v>218.45400000000001</v>
+        <v>222.95897835269139</v>
       </c>
       <c r="AB70" s="14">
-        <v>216.2158</v>
+        <v>230.50103151512874</v>
       </c>
       <c r="AC70" s="14">
-        <v>204.202</v>
+        <v>210.85903715573744</v>
       </c>
       <c r="AD70" s="14">
-        <v>199.90299999999999</v>
+        <v>195.08388140805312</v>
       </c>
     </row>
   </sheetData>

--- a/data/exampleStochastic/Power_Demand.xlsx
+++ b/data/exampleStochastic/Power_Demand.xlsx
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.3</t>
+          <t>v0.1.4</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Demand at node for representative hour k</t>
+          <t>Demand at this representative time step k</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>
@@ -7425,12 +7425,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.3</t>
+          <t>v0.1.4</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Demand at node for representative hour k</t>
+          <t>Demand at this representative time step k</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>
@@ -14283,6 +14283,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data/exampleStochastic/Power_Demand.xlsx
+++ b/data/exampleStochastic/Power_Demand.xlsx
@@ -621,7 +621,7 @@
     <col width="11.2809375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
     <col width="11.2809375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/exampleStochastic/Power_Demand.xlsx
+++ b/data/exampleStochastic/Power_Demand.xlsx
@@ -29,7 +29,7 @@
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -44,7 +44,7 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
@@ -61,38 +61,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
   </fills>
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -589,36 +589,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
-    <col width="24.5709375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
-    <col width="11.2809375" customWidth="1" min="7" max="7"/>
-    <col width="11.2809375" customWidth="1" min="8" max="8"/>
-    <col width="11.2809375" customWidth="1" min="9" max="9"/>
-    <col width="11.2809375" customWidth="1" min="10" max="10"/>
-    <col width="11.2809375" customWidth="1" min="11" max="11"/>
-    <col width="11.2809375" customWidth="1" min="12" max="12"/>
-    <col width="11.2809375" customWidth="1" min="13" max="13"/>
-    <col width="11.2809375" customWidth="1" min="14" max="14"/>
-    <col width="11.2809375" customWidth="1" min="15" max="15"/>
-    <col width="11.2809375" customWidth="1" min="16" max="16"/>
-    <col width="11.2809375" customWidth="1" min="17" max="17"/>
-    <col width="11.2809375" customWidth="1" min="18" max="18"/>
-    <col width="11.2809375" customWidth="1" min="19" max="19"/>
-    <col width="11.2809375" customWidth="1" min="20" max="20"/>
-    <col width="11.2809375" customWidth="1" min="21" max="21"/>
-    <col width="11.2809375" customWidth="1" min="22" max="22"/>
-    <col width="11.2809375" customWidth="1" min="23" max="23"/>
-    <col width="11.2809375" customWidth="1" min="24" max="24"/>
-    <col width="11.2809375" customWidth="1" min="25" max="25"/>
-    <col width="11.2809375" customWidth="1" min="26" max="26"/>
-    <col width="11.2809375" customWidth="1" min="27" max="27"/>
-    <col width="11.2809375" customWidth="1" min="28" max="28"/>
-    <col width="11.2809375" customWidth="1" min="29" max="29"/>
-    <col width="11.2809375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
+    <col width="11.28515625" customWidth="1" min="7" max="7"/>
+    <col width="11.28515625" customWidth="1" min="8" max="8"/>
+    <col width="11.28515625" customWidth="1" min="9" max="9"/>
+    <col width="11.28515625" customWidth="1" min="10" max="10"/>
+    <col width="11.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.28515625" customWidth="1" min="12" max="12"/>
+    <col width="11.28515625" customWidth="1" min="13" max="13"/>
+    <col width="11.28515625" customWidth="1" min="14" max="14"/>
+    <col width="11.28515625" customWidth="1" min="15" max="15"/>
+    <col width="11.28515625" customWidth="1" min="16" max="16"/>
+    <col width="11.28515625" customWidth="1" min="17" max="17"/>
+    <col width="11.28515625" customWidth="1" min="18" max="18"/>
+    <col width="11.28515625" customWidth="1" min="19" max="19"/>
+    <col width="11.28515625" customWidth="1" min="20" max="20"/>
+    <col width="11.28515625" customWidth="1" min="21" max="21"/>
+    <col width="11.28515625" customWidth="1" min="22" max="22"/>
+    <col width="11.28515625" customWidth="1" min="23" max="23"/>
+    <col width="11.28515625" customWidth="1" min="24" max="24"/>
+    <col width="11.28515625" customWidth="1" min="25" max="25"/>
+    <col width="11.28515625" customWidth="1" min="26" max="26"/>
+    <col width="11.28515625" customWidth="1" min="27" max="27"/>
+    <col width="11.28515625" customWidth="1" min="28" max="28"/>
+    <col width="11.28515625" customWidth="1" min="29" max="29"/>
+    <col width="11.28515625" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -7425,12 +7425,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7447,36 +7447,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
-    <col width="24.5709375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
-    <col width="11.2809375" customWidth="1" min="7" max="7"/>
-    <col width="11.2809375" customWidth="1" min="8" max="8"/>
-    <col width="11.2809375" customWidth="1" min="9" max="9"/>
-    <col width="11.2809375" customWidth="1" min="10" max="10"/>
-    <col width="11.2809375" customWidth="1" min="11" max="11"/>
-    <col width="11.2809375" customWidth="1" min="12" max="12"/>
-    <col width="11.2809375" customWidth="1" min="13" max="13"/>
-    <col width="11.2809375" customWidth="1" min="14" max="14"/>
-    <col width="11.2809375" customWidth="1" min="15" max="15"/>
-    <col width="11.2809375" customWidth="1" min="16" max="16"/>
-    <col width="11.2809375" customWidth="1" min="17" max="17"/>
-    <col width="11.2809375" customWidth="1" min="18" max="18"/>
-    <col width="11.2809375" customWidth="1" min="19" max="19"/>
-    <col width="11.2809375" customWidth="1" min="20" max="20"/>
-    <col width="11.2809375" customWidth="1" min="21" max="21"/>
-    <col width="11.2809375" customWidth="1" min="22" max="22"/>
-    <col width="11.2809375" customWidth="1" min="23" max="23"/>
-    <col width="11.2809375" customWidth="1" min="24" max="24"/>
-    <col width="11.2809375" customWidth="1" min="25" max="25"/>
-    <col width="11.2809375" customWidth="1" min="26" max="26"/>
-    <col width="11.2809375" customWidth="1" min="27" max="27"/>
-    <col width="11.2809375" customWidth="1" min="28" max="28"/>
-    <col width="11.2809375" customWidth="1" min="29" max="29"/>
-    <col width="11.2809375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
+    <col width="11.28515625" customWidth="1" min="7" max="7"/>
+    <col width="11.28515625" customWidth="1" min="8" max="8"/>
+    <col width="11.28515625" customWidth="1" min="9" max="9"/>
+    <col width="11.28515625" customWidth="1" min="10" max="10"/>
+    <col width="11.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.28515625" customWidth="1" min="12" max="12"/>
+    <col width="11.28515625" customWidth="1" min="13" max="13"/>
+    <col width="11.28515625" customWidth="1" min="14" max="14"/>
+    <col width="11.28515625" customWidth="1" min="15" max="15"/>
+    <col width="11.28515625" customWidth="1" min="16" max="16"/>
+    <col width="11.28515625" customWidth="1" min="17" max="17"/>
+    <col width="11.28515625" customWidth="1" min="18" max="18"/>
+    <col width="11.28515625" customWidth="1" min="19" max="19"/>
+    <col width="11.28515625" customWidth="1" min="20" max="20"/>
+    <col width="11.28515625" customWidth="1" min="21" max="21"/>
+    <col width="11.28515625" customWidth="1" min="22" max="22"/>
+    <col width="11.28515625" customWidth="1" min="23" max="23"/>
+    <col width="11.28515625" customWidth="1" min="24" max="24"/>
+    <col width="11.28515625" customWidth="1" min="25" max="25"/>
+    <col width="11.28515625" customWidth="1" min="26" max="26"/>
+    <col width="11.28515625" customWidth="1" min="27" max="27"/>
+    <col width="11.28515625" customWidth="1" min="28" max="28"/>
+    <col width="11.28515625" customWidth="1" min="29" max="29"/>
+    <col width="11.28515625" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -14283,6 +14283,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>